--- a/06.Artifacts/TEST CASES/test case template 03.xlsx
+++ b/06.Artifacts/TEST CASES/test case template 03.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10916"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\test case template\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tony/GitHub/Aptech/tester-tutorials/06.Artifacts/TEST CASES/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23F7D41C-3348-1641-B5A7-90F2562C5DBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19170" windowHeight="9450"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="20420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sample Test Case" sheetId="1" r:id="rId1"/>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="41">
   <si>
     <t xml:space="preserve">Project Name: </t>
   </si>
@@ -258,11 +259,17 @@
     <t>POST
 CONDITION</t>
   </si>
+  <si>
+    <t>admin</t>
+  </si>
+  <si>
+    <t>tester@123</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="25" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -976,7 +983,6 @@
     <xf numFmtId="0" fontId="0" fillId="33" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="23" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="20" fillId="34" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -988,6 +994,63 @@
     <xf numFmtId="0" fontId="22" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="23" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="24" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="17" xfId="42" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="20" fillId="34" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1003,63 +1066,7 @@
     <xf numFmtId="0" fontId="21" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="33" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="33" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="33" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="17" xfId="42" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="33" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="33" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="33" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="33" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="33" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="33" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="33" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="33" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="33" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="33" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="33" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="33" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="33" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="10" xfId="42" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1136,7 +1143,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1169,9 +1182,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1209,9 +1222,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1246,7 +1259,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1281,7 +1294,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1454,386 +1467,386 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K749"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
+    <sheetView tabSelected="1" topLeftCell="B4" zoomScale="204" zoomScaleNormal="204" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10:G12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="1.28515625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="15.28515625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="22.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="20.85546875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="21.85546875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="20.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="27.5703125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="1.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="15.33203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="22.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="20.83203125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="21.83203125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="20.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="27.5" style="1" customWidth="1"/>
     <col min="9" max="9" width="16" style="1" customWidth="1"/>
-    <col min="10" max="10" width="10.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="5"/>
+    <col min="10" max="10" width="10.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="9.1640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:11" ht="5.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B2" s="13" t="s">
+    <row r="1" spans="2:11" ht="5.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="2" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B2" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="13"/>
-      <c r="D2" s="14" t="s">
+      <c r="C2" s="31"/>
+      <c r="D2" s="32" t="s">
         <v>32</v>
       </c>
-      <c r="E2" s="15"/>
-      <c r="F2" s="15"/>
-      <c r="G2" s="16"/>
-      <c r="H2" s="21" t="s">
+      <c r="E2" s="33"/>
+      <c r="F2" s="33"/>
+      <c r="G2" s="34"/>
+      <c r="H2" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="I2" s="22"/>
-      <c r="J2" s="22"/>
-      <c r="K2" s="23"/>
-    </row>
-    <row r="3" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B3" s="13" t="s">
+      <c r="I2" s="23"/>
+      <c r="J2" s="23"/>
+      <c r="K2" s="24"/>
+    </row>
+    <row r="3" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B3" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="13"/>
-      <c r="D3" s="14" t="s">
+      <c r="C3" s="31"/>
+      <c r="D3" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="E3" s="15"/>
-      <c r="F3" s="15"/>
-      <c r="G3" s="16"/>
-      <c r="H3" s="24"/>
-      <c r="I3" s="25"/>
-      <c r="J3" s="25"/>
-      <c r="K3" s="26"/>
-    </row>
-    <row r="4" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B4" s="13" t="s">
+      <c r="E3" s="33"/>
+      <c r="F3" s="33"/>
+      <c r="G3" s="34"/>
+      <c r="H3" s="25"/>
+      <c r="I3" s="26"/>
+      <c r="J3" s="26"/>
+      <c r="K3" s="27"/>
+    </row>
+    <row r="4" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B4" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="13"/>
-      <c r="D4" s="17" t="s">
+      <c r="C4" s="31"/>
+      <c r="D4" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="17"/>
-      <c r="F4" s="17"/>
-      <c r="G4" s="17"/>
-      <c r="H4" s="24"/>
-      <c r="I4" s="25"/>
-      <c r="J4" s="25"/>
-      <c r="K4" s="26"/>
-    </row>
-    <row r="5" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B5" s="13" t="s">
+      <c r="E4" s="35"/>
+      <c r="F4" s="35"/>
+      <c r="G4" s="35"/>
+      <c r="H4" s="25"/>
+      <c r="I4" s="26"/>
+      <c r="J4" s="26"/>
+      <c r="K4" s="27"/>
+    </row>
+    <row r="5" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B5" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="13"/>
-      <c r="D5" s="17" t="s">
+      <c r="C5" s="31"/>
+      <c r="D5" s="35" t="s">
         <v>18</v>
       </c>
-      <c r="E5" s="17"/>
-      <c r="F5" s="17"/>
-      <c r="G5" s="17"/>
-      <c r="H5" s="24"/>
-      <c r="I5" s="25"/>
-      <c r="J5" s="25"/>
-      <c r="K5" s="26"/>
-    </row>
-    <row r="6" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B6" s="13" t="s">
+      <c r="E5" s="35"/>
+      <c r="F5" s="35"/>
+      <c r="G5" s="35"/>
+      <c r="H5" s="25"/>
+      <c r="I5" s="26"/>
+      <c r="J5" s="26"/>
+      <c r="K5" s="27"/>
+    </row>
+    <row r="6" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B6" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="13"/>
-      <c r="D6" s="17" t="s">
+      <c r="C6" s="31"/>
+      <c r="D6" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="E6" s="17"/>
-      <c r="F6" s="17"/>
-      <c r="G6" s="17"/>
-      <c r="H6" s="24"/>
-      <c r="I6" s="25"/>
-      <c r="J6" s="25"/>
-      <c r="K6" s="26"/>
-    </row>
-    <row r="7" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B7" s="13" t="s">
+      <c r="E6" s="35"/>
+      <c r="F6" s="35"/>
+      <c r="G6" s="35"/>
+      <c r="H6" s="25"/>
+      <c r="I6" s="26"/>
+      <c r="J6" s="26"/>
+      <c r="K6" s="27"/>
+    </row>
+    <row r="7" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B7" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="13"/>
-      <c r="D7" s="17" t="s">
+      <c r="C7" s="31"/>
+      <c r="D7" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="E7" s="17"/>
-      <c r="F7" s="17"/>
-      <c r="G7" s="17"/>
-      <c r="H7" s="27"/>
-      <c r="I7" s="28"/>
-      <c r="J7" s="28"/>
-      <c r="K7" s="29"/>
-    </row>
-    <row r="9" spans="2:11" ht="43.5" x14ac:dyDescent="0.25">
-      <c r="B9" s="8" t="s">
+      <c r="E7" s="35"/>
+      <c r="F7" s="35"/>
+      <c r="G7" s="35"/>
+      <c r="H7" s="28"/>
+      <c r="I7" s="29"/>
+      <c r="J7" s="29"/>
+      <c r="K7" s="30"/>
+    </row>
+    <row r="9" spans="2:11" ht="46" x14ac:dyDescent="0.2">
+      <c r="B9" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="8" t="s">
+      <c r="C9" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="D9" s="8" t="s">
+      <c r="D9" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="E9" s="8" t="s">
+      <c r="E9" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="F9" s="8" t="s">
+      <c r="F9" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="G9" s="8" t="s">
+      <c r="G9" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="H9" s="9" t="s">
+      <c r="H9" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="I9" s="9" t="s">
+      <c r="I9" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="J9" s="9" t="s">
+      <c r="J9" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="K9" s="9" t="s">
+      <c r="K9" s="8" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="10" spans="2:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="18" t="s">
+    <row r="10" spans="2:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B10" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="C10" s="30" t="s">
+      <c r="C10" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="D10" s="30" t="s">
+      <c r="D10" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="E10" s="33" t="s">
+      <c r="E10" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="F10" s="10" t="s">
+      <c r="F10" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="G10" s="11" t="s">
+      <c r="G10" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="H10" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="I10" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="J10" s="12"/>
+      <c r="K10" s="15"/>
+    </row>
+    <row r="11" spans="2:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B11" s="17"/>
+      <c r="C11" s="13"/>
+      <c r="D11" s="13"/>
+      <c r="E11" s="20"/>
+      <c r="F11" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="G11" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="H11" s="13"/>
+      <c r="I11" s="13"/>
+      <c r="J11" s="13"/>
+      <c r="K11" s="15"/>
+    </row>
+    <row r="12" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B12" s="18"/>
+      <c r="C12" s="14"/>
+      <c r="D12" s="14"/>
+      <c r="E12" s="21"/>
+      <c r="F12" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="G12" s="9"/>
+      <c r="H12" s="14"/>
+      <c r="I12" s="14"/>
+      <c r="J12" s="14"/>
+      <c r="K12" s="15"/>
+    </row>
+    <row r="13" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B13" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="C13" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="D13" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="E13" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="F13" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="G13" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="H10" s="30" t="s">
-        <v>27</v>
+      <c r="H13" s="12" t="s">
+        <v>26</v>
       </c>
-      <c r="I10" s="30" t="s">
-        <v>31</v>
-      </c>
-      <c r="J10" s="30"/>
-      <c r="K10" s="36"/>
-    </row>
-    <row r="11" spans="2:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="19"/>
-      <c r="C11" s="31"/>
-      <c r="D11" s="31"/>
-      <c r="E11" s="34"/>
-      <c r="F11" s="10" t="s">
+      <c r="I13" s="12"/>
+      <c r="J13" s="12"/>
+      <c r="K13" s="15"/>
+    </row>
+    <row r="14" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B14" s="17"/>
+      <c r="C14" s="13"/>
+      <c r="D14" s="13"/>
+      <c r="E14" s="20"/>
+      <c r="F14" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="G11" s="11" t="s">
+      <c r="G14" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="H14" s="13"/>
+      <c r="I14" s="13"/>
+      <c r="J14" s="13"/>
+      <c r="K14" s="15"/>
+    </row>
+    <row r="15" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B15" s="18"/>
+      <c r="C15" s="14"/>
+      <c r="D15" s="14"/>
+      <c r="E15" s="21"/>
+      <c r="F15" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="G15" s="9"/>
+      <c r="H15" s="14"/>
+      <c r="I15" s="14"/>
+      <c r="J15" s="14"/>
+      <c r="K15" s="15"/>
+    </row>
+    <row r="16" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B16" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="C16" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="D16" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="E16" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="F16" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="G16" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="H16" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="I16" s="12"/>
+      <c r="J16" s="12"/>
+      <c r="K16" s="15"/>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B17" s="17"/>
+      <c r="C17" s="13"/>
+      <c r="D17" s="13"/>
+      <c r="E17" s="20"/>
+      <c r="F17" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="G17" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="H11" s="31"/>
-      <c r="I11" s="31"/>
-      <c r="J11" s="31"/>
-      <c r="K11" s="36"/>
-    </row>
-    <row r="12" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B12" s="20"/>
-      <c r="C12" s="32"/>
-      <c r="D12" s="32"/>
-      <c r="E12" s="35"/>
-      <c r="F12" s="10" t="s">
+      <c r="H17" s="13"/>
+      <c r="I17" s="13"/>
+      <c r="J17" s="13"/>
+      <c r="K17" s="15"/>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B18" s="18"/>
+      <c r="C18" s="14"/>
+      <c r="D18" s="14"/>
+      <c r="E18" s="21"/>
+      <c r="F18" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="G12" s="10"/>
-      <c r="H12" s="32"/>
-      <c r="I12" s="32"/>
-      <c r="J12" s="32"/>
-      <c r="K12" s="36"/>
-    </row>
-    <row r="13" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="18" t="s">
+      <c r="G18" s="9"/>
+      <c r="H18" s="14"/>
+      <c r="I18" s="14"/>
+      <c r="J18" s="14"/>
+      <c r="K18" s="15"/>
+    </row>
+    <row r="19" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B19" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="C13" s="30" t="s">
+      <c r="C19" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="D13" s="30" t="s">
-        <v>35</v>
+      <c r="D19" s="12" t="s">
+        <v>37</v>
       </c>
-      <c r="E13" s="33" t="s">
+      <c r="E19" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="F13" s="10" t="s">
+      <c r="F19" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="G13" s="11" t="s">
-        <v>21</v>
+      <c r="G19" s="11" t="s">
+        <v>24</v>
       </c>
-      <c r="H13" s="30" t="s">
+      <c r="H19" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="I13" s="30"/>
-      <c r="J13" s="30"/>
-      <c r="K13" s="36"/>
-    </row>
-    <row r="14" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B14" s="19"/>
-      <c r="C14" s="31"/>
-      <c r="D14" s="31"/>
-      <c r="E14" s="34"/>
-      <c r="F14" s="10" t="s">
+      <c r="I19" s="12"/>
+      <c r="J19" s="12"/>
+      <c r="K19" s="15"/>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B20" s="17"/>
+      <c r="C20" s="13"/>
+      <c r="D20" s="13"/>
+      <c r="E20" s="20"/>
+      <c r="F20" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="G14" s="12" t="s">
+      <c r="G20" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="H14" s="31"/>
-      <c r="I14" s="31"/>
-      <c r="J14" s="31"/>
-      <c r="K14" s="36"/>
-    </row>
-    <row r="15" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B15" s="20"/>
-      <c r="C15" s="32"/>
-      <c r="D15" s="32"/>
-      <c r="E15" s="35"/>
-      <c r="F15" s="10" t="s">
+      <c r="H20" s="13"/>
+      <c r="I20" s="13"/>
+      <c r="J20" s="13"/>
+      <c r="K20" s="15"/>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B21" s="18"/>
+      <c r="C21" s="14"/>
+      <c r="D21" s="14"/>
+      <c r="E21" s="21"/>
+      <c r="F21" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="G15" s="10"/>
-      <c r="H15" s="32"/>
-      <c r="I15" s="32"/>
-      <c r="J15" s="32"/>
-      <c r="K15" s="36"/>
-    </row>
-    <row r="16" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="C16" s="30" t="s">
-        <v>20</v>
-      </c>
-      <c r="D16" s="30" t="s">
-        <v>36</v>
-      </c>
-      <c r="E16" s="33" t="s">
-        <v>25</v>
-      </c>
-      <c r="F16" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="G16" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="H16" s="30" t="s">
-        <v>26</v>
-      </c>
-      <c r="I16" s="30"/>
-      <c r="J16" s="30"/>
-      <c r="K16" s="36"/>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B17" s="19"/>
-      <c r="C17" s="31"/>
-      <c r="D17" s="31"/>
-      <c r="E17" s="34"/>
-      <c r="F17" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="G17" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="H17" s="31"/>
-      <c r="I17" s="31"/>
-      <c r="J17" s="31"/>
-      <c r="K17" s="36"/>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B18" s="20"/>
-      <c r="C18" s="32"/>
-      <c r="D18" s="32"/>
-      <c r="E18" s="35"/>
-      <c r="F18" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="G18" s="10"/>
-      <c r="H18" s="32"/>
-      <c r="I18" s="32"/>
-      <c r="J18" s="32"/>
-      <c r="K18" s="36"/>
-    </row>
-    <row r="19" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="C19" s="30" t="s">
-        <v>20</v>
-      </c>
-      <c r="D19" s="30" t="s">
-        <v>37</v>
-      </c>
-      <c r="E19" s="33" t="s">
-        <v>25</v>
-      </c>
-      <c r="F19" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="G19" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="H19" s="30" t="s">
-        <v>26</v>
-      </c>
-      <c r="I19" s="30"/>
-      <c r="J19" s="30"/>
-      <c r="K19" s="36"/>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B20" s="19"/>
-      <c r="C20" s="31"/>
-      <c r="D20" s="31"/>
-      <c r="E20" s="34"/>
-      <c r="F20" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="G20" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="H20" s="31"/>
-      <c r="I20" s="31"/>
-      <c r="J20" s="31"/>
-      <c r="K20" s="36"/>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B21" s="20"/>
-      <c r="C21" s="32"/>
-      <c r="D21" s="32"/>
-      <c r="E21" s="35"/>
-      <c r="F21" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="G21" s="10"/>
-      <c r="H21" s="32"/>
-      <c r="I21" s="32"/>
-      <c r="J21" s="32"/>
-      <c r="K21" s="36"/>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="G21" s="9"/>
+      <c r="H21" s="14"/>
+      <c r="I21" s="14"/>
+      <c r="J21" s="14"/>
+      <c r="K21" s="15"/>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
@@ -1845,7 +1858,7 @@
       <c r="J22" s="3"/>
       <c r="K22" s="2"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A23" s="4"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
@@ -1858,8 +1871,7 @@
       <c r="J23" s="2"/>
       <c r="K23" s="2"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A24" s="5"/>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
@@ -1871,8 +1883,7 @@
       <c r="J24" s="2"/>
       <c r="K24" s="2"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A25" s="5"/>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
@@ -1884,8 +1895,8 @@
       <c r="J25" s="2"/>
       <c r="K25" s="2"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A26" s="7"/>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A26" s="6"/>
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
@@ -1897,19 +1908,19 @@
       <c r="J26" s="2"/>
       <c r="K26" s="2"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B27" s="6"/>
-      <c r="C27" s="6"/>
-      <c r="D27" s="6"/>
-      <c r="E27" s="6"/>
-      <c r="F27" s="6"/>
-      <c r="G27" s="6"/>
-      <c r="H27" s="6"/>
-      <c r="I27" s="6"/>
-      <c r="J27" s="6"/>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B27" s="5"/>
+      <c r="C27" s="5"/>
+      <c r="D27" s="5"/>
+      <c r="E27" s="5"/>
+      <c r="F27" s="5"/>
+      <c r="G27" s="5"/>
+      <c r="H27" s="5"/>
+      <c r="I27" s="5"/>
+      <c r="J27" s="5"/>
       <c r="K27" s="2"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
@@ -1921,7 +1932,7 @@
       <c r="J28" s="2"/>
       <c r="K28" s="2"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
@@ -1933,7 +1944,7 @@
       <c r="J29" s="2"/>
       <c r="K29" s="2"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
       <c r="D30" s="2"/>
@@ -1945,7 +1956,7 @@
       <c r="J30" s="2"/>
       <c r="K30" s="2"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
       <c r="D31" s="2"/>
@@ -1957,7 +1968,7 @@
       <c r="J31" s="2"/>
       <c r="K31" s="2"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
       <c r="D32" s="2"/>
@@ -1969,7 +1980,7 @@
       <c r="J32" s="2"/>
       <c r="K32" s="2"/>
     </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
       <c r="D33" s="2"/>
@@ -1981,7 +1992,7 @@
       <c r="J33" s="2"/>
       <c r="K33" s="2"/>
     </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
       <c r="D34" s="2"/>
@@ -1993,7 +2004,7 @@
       <c r="J34" s="2"/>
       <c r="K34" s="2"/>
     </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
       <c r="D35" s="2"/>
@@ -2005,7 +2016,7 @@
       <c r="J35" s="2"/>
       <c r="K35" s="2"/>
     </row>
-    <row r="36" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B36" s="2"/>
       <c r="C36" s="2"/>
       <c r="D36" s="2"/>
@@ -2017,7 +2028,7 @@
       <c r="J36" s="2"/>
       <c r="K36" s="2"/>
     </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
       <c r="D37" s="2"/>
@@ -2029,7 +2040,7 @@
       <c r="J37" s="2"/>
       <c r="K37" s="2"/>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B38" s="2"/>
       <c r="C38" s="2"/>
       <c r="D38" s="2"/>
@@ -2041,7 +2052,7 @@
       <c r="J38" s="2"/>
       <c r="K38" s="2"/>
     </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B39" s="2"/>
       <c r="C39" s="2"/>
       <c r="D39" s="2"/>
@@ -2053,7 +2064,7 @@
       <c r="J39" s="2"/>
       <c r="K39" s="2"/>
     </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B40" s="2"/>
       <c r="C40" s="2"/>
       <c r="D40" s="2"/>
@@ -2065,7 +2076,7 @@
       <c r="J40" s="2"/>
       <c r="K40" s="2"/>
     </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B41" s="2"/>
       <c r="C41" s="2"/>
       <c r="D41" s="2"/>
@@ -2077,7 +2088,7 @@
       <c r="J41" s="2"/>
       <c r="K41" s="2"/>
     </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B42" s="2"/>
       <c r="C42" s="2"/>
       <c r="D42" s="2"/>
@@ -2089,7 +2100,7 @@
       <c r="J42" s="2"/>
       <c r="K42" s="2"/>
     </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B43" s="2"/>
       <c r="C43" s="2"/>
       <c r="D43" s="2"/>
@@ -2101,7 +2112,7 @@
       <c r="J43" s="2"/>
       <c r="K43" s="2"/>
     </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B44" s="2"/>
       <c r="C44" s="2"/>
       <c r="D44" s="2"/>
@@ -2113,7 +2124,7 @@
       <c r="J44" s="2"/>
       <c r="K44" s="2"/>
     </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B45" s="2"/>
       <c r="C45" s="2"/>
       <c r="D45" s="2"/>
@@ -2125,7 +2136,7 @@
       <c r="J45" s="2"/>
       <c r="K45" s="2"/>
     </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B46" s="2"/>
       <c r="C46" s="2"/>
       <c r="D46" s="2"/>
@@ -2137,7 +2148,7 @@
       <c r="J46" s="2"/>
       <c r="K46" s="2"/>
     </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B47" s="2"/>
       <c r="C47" s="2"/>
       <c r="D47" s="2"/>
@@ -2149,7 +2160,7 @@
       <c r="J47" s="2"/>
       <c r="K47" s="2"/>
     </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B48" s="2"/>
       <c r="C48" s="2"/>
       <c r="D48" s="2"/>
@@ -2161,7 +2172,7 @@
       <c r="J48" s="2"/>
       <c r="K48" s="2"/>
     </row>
-    <row r="49" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B49" s="2"/>
       <c r="C49" s="2"/>
       <c r="D49" s="2"/>
@@ -2173,7 +2184,7 @@
       <c r="J49" s="2"/>
       <c r="K49" s="2"/>
     </row>
-    <row r="50" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B50" s="2"/>
       <c r="C50" s="2"/>
       <c r="D50" s="2"/>
@@ -2185,7 +2196,7 @@
       <c r="J50" s="2"/>
       <c r="K50" s="2"/>
     </row>
-    <row r="51" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B51" s="2"/>
       <c r="C51" s="2"/>
       <c r="D51" s="2"/>
@@ -2197,7 +2208,7 @@
       <c r="J51" s="2"/>
       <c r="K51" s="2"/>
     </row>
-    <row r="52" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B52" s="2"/>
       <c r="C52" s="2"/>
       <c r="D52" s="2"/>
@@ -2209,7 +2220,7 @@
       <c r="J52" s="2"/>
       <c r="K52" s="2"/>
     </row>
-    <row r="53" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B53" s="2"/>
       <c r="C53" s="2"/>
       <c r="D53" s="2"/>
@@ -2221,7 +2232,7 @@
       <c r="J53" s="2"/>
       <c r="K53" s="2"/>
     </row>
-    <row r="54" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B54" s="2"/>
       <c r="C54" s="2"/>
       <c r="D54" s="2"/>
@@ -2233,7 +2244,7 @@
       <c r="J54" s="2"/>
       <c r="K54" s="2"/>
     </row>
-    <row r="55" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B55" s="2"/>
       <c r="C55" s="2"/>
       <c r="D55" s="2"/>
@@ -2245,7 +2256,7 @@
       <c r="J55" s="2"/>
       <c r="K55" s="2"/>
     </row>
-    <row r="56" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B56" s="2"/>
       <c r="C56" s="2"/>
       <c r="D56" s="2"/>
@@ -2257,7 +2268,7 @@
       <c r="J56" s="2"/>
       <c r="K56" s="2"/>
     </row>
-    <row r="57" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B57" s="2"/>
       <c r="C57" s="2"/>
       <c r="D57" s="2"/>
@@ -2269,7 +2280,7 @@
       <c r="J57" s="2"/>
       <c r="K57" s="2"/>
     </row>
-    <row r="58" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B58" s="2"/>
       <c r="C58" s="2"/>
       <c r="D58" s="2"/>
@@ -2281,7 +2292,7 @@
       <c r="J58" s="2"/>
       <c r="K58" s="2"/>
     </row>
-    <row r="59" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B59" s="2"/>
       <c r="C59" s="2"/>
       <c r="D59" s="2"/>
@@ -2293,7 +2304,7 @@
       <c r="J59" s="2"/>
       <c r="K59" s="2"/>
     </row>
-    <row r="60" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B60" s="2"/>
       <c r="C60" s="2"/>
       <c r="D60" s="2"/>
@@ -2305,7 +2316,7 @@
       <c r="J60" s="2"/>
       <c r="K60" s="2"/>
     </row>
-    <row r="61" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B61" s="2"/>
       <c r="C61" s="2"/>
       <c r="D61" s="2"/>
@@ -2317,7 +2328,7 @@
       <c r="J61" s="2"/>
       <c r="K61" s="2"/>
     </row>
-    <row r="62" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B62" s="2"/>
       <c r="C62" s="2"/>
       <c r="D62" s="2"/>
@@ -2329,7 +2340,7 @@
       <c r="J62" s="2"/>
       <c r="K62" s="2"/>
     </row>
-    <row r="63" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B63" s="2"/>
       <c r="C63" s="2"/>
       <c r="D63" s="2"/>
@@ -2341,7 +2352,7 @@
       <c r="J63" s="2"/>
       <c r="K63" s="2"/>
     </row>
-    <row r="64" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B64" s="2"/>
       <c r="C64" s="2"/>
       <c r="D64" s="2"/>
@@ -2353,7 +2364,7 @@
       <c r="J64" s="2"/>
       <c r="K64" s="2"/>
     </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B65" s="2"/>
       <c r="C65" s="2"/>
       <c r="D65" s="2"/>
@@ -2365,7 +2376,7 @@
       <c r="J65" s="2"/>
       <c r="K65" s="2"/>
     </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B66" s="2"/>
       <c r="C66" s="2"/>
       <c r="D66" s="2"/>
@@ -2377,7 +2388,7 @@
       <c r="J66" s="2"/>
       <c r="K66" s="2"/>
     </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B67" s="2"/>
       <c r="C67" s="2"/>
       <c r="D67" s="2"/>
@@ -2389,7 +2400,7 @@
       <c r="J67" s="2"/>
       <c r="K67" s="2"/>
     </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B68" s="2"/>
       <c r="C68" s="2"/>
       <c r="D68" s="2"/>
@@ -2401,7 +2412,7 @@
       <c r="J68" s="2"/>
       <c r="K68" s="2"/>
     </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B69" s="2"/>
       <c r="C69" s="2"/>
       <c r="D69" s="2"/>
@@ -2413,7 +2424,7 @@
       <c r="J69" s="2"/>
       <c r="K69" s="2"/>
     </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B70" s="2"/>
       <c r="C70" s="2"/>
       <c r="D70" s="2"/>
@@ -2425,7 +2436,7 @@
       <c r="J70" s="2"/>
       <c r="K70" s="2"/>
     </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B71" s="2"/>
       <c r="C71" s="2"/>
       <c r="D71" s="2"/>
@@ -2437,7 +2448,7 @@
       <c r="J71" s="2"/>
       <c r="K71" s="2"/>
     </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B72" s="2"/>
       <c r="C72" s="2"/>
       <c r="D72" s="2"/>
@@ -2449,7 +2460,7 @@
       <c r="J72" s="2"/>
       <c r="K72" s="2"/>
     </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B73" s="2"/>
       <c r="C73" s="2"/>
       <c r="D73" s="2"/>
@@ -2461,7 +2472,7 @@
       <c r="J73" s="2"/>
       <c r="K73" s="2"/>
     </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B74" s="2"/>
       <c r="C74" s="2"/>
       <c r="D74" s="2"/>
@@ -2473,7 +2484,7 @@
       <c r="J74" s="2"/>
       <c r="K74" s="2"/>
     </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B75" s="2"/>
       <c r="C75" s="2"/>
       <c r="D75" s="2"/>
@@ -2485,7 +2496,7 @@
       <c r="J75" s="2"/>
       <c r="K75" s="2"/>
     </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B76" s="2"/>
       <c r="C76" s="2"/>
       <c r="D76" s="2"/>
@@ -2497,7 +2508,7 @@
       <c r="J76" s="2"/>
       <c r="K76" s="2"/>
     </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B77" s="2"/>
       <c r="C77" s="2"/>
       <c r="D77" s="2"/>
@@ -2509,7 +2520,7 @@
       <c r="J77" s="2"/>
       <c r="K77" s="2"/>
     </row>
-    <row r="78" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B78" s="2"/>
       <c r="C78" s="2"/>
       <c r="D78" s="2"/>
@@ -2521,7 +2532,7 @@
       <c r="J78" s="2"/>
       <c r="K78" s="2"/>
     </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B79" s="2"/>
       <c r="C79" s="2"/>
       <c r="D79" s="2"/>
@@ -2533,7 +2544,7 @@
       <c r="J79" s="2"/>
       <c r="K79" s="2"/>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B80" s="2"/>
       <c r="C80" s="2"/>
       <c r="D80" s="2"/>
@@ -2545,7 +2556,7 @@
       <c r="J80" s="2"/>
       <c r="K80" s="2"/>
     </row>
-    <row r="81" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B81" s="2"/>
       <c r="C81" s="2"/>
       <c r="D81" s="2"/>
@@ -2557,7 +2568,7 @@
       <c r="J81" s="2"/>
       <c r="K81" s="2"/>
     </row>
-    <row r="82" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B82" s="2"/>
       <c r="C82" s="2"/>
       <c r="D82" s="2"/>
@@ -2569,7 +2580,7 @@
       <c r="J82" s="2"/>
       <c r="K82" s="2"/>
     </row>
-    <row r="83" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B83" s="2"/>
       <c r="C83" s="2"/>
       <c r="D83" s="2"/>
@@ -2581,7 +2592,7 @@
       <c r="J83" s="2"/>
       <c r="K83" s="2"/>
     </row>
-    <row r="84" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B84" s="2"/>
       <c r="C84" s="2"/>
       <c r="D84" s="2"/>
@@ -2593,7 +2604,7 @@
       <c r="J84" s="2"/>
       <c r="K84" s="2"/>
     </row>
-    <row r="85" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B85" s="2"/>
       <c r="C85" s="2"/>
       <c r="D85" s="2"/>
@@ -2605,7 +2616,7 @@
       <c r="J85" s="2"/>
       <c r="K85" s="2"/>
     </row>
-    <row r="86" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B86" s="2"/>
       <c r="C86" s="2"/>
       <c r="D86" s="2"/>
@@ -2617,7 +2628,7 @@
       <c r="J86" s="2"/>
       <c r="K86" s="2"/>
     </row>
-    <row r="87" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B87" s="2"/>
       <c r="C87" s="2"/>
       <c r="D87" s="2"/>
@@ -2629,7 +2640,7 @@
       <c r="J87" s="2"/>
       <c r="K87" s="2"/>
     </row>
-    <row r="88" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B88" s="2"/>
       <c r="C88" s="2"/>
       <c r="D88" s="2"/>
@@ -2641,7 +2652,7 @@
       <c r="J88" s="2"/>
       <c r="K88" s="2"/>
     </row>
-    <row r="89" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B89" s="2"/>
       <c r="C89" s="2"/>
       <c r="D89" s="2"/>
@@ -2653,7 +2664,7 @@
       <c r="J89" s="2"/>
       <c r="K89" s="2"/>
     </row>
-    <row r="90" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B90" s="2"/>
       <c r="C90" s="2"/>
       <c r="D90" s="2"/>
@@ -2665,7 +2676,7 @@
       <c r="J90" s="2"/>
       <c r="K90" s="2"/>
     </row>
-    <row r="91" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B91" s="2"/>
       <c r="C91" s="2"/>
       <c r="D91" s="2"/>
@@ -2677,7 +2688,7 @@
       <c r="J91" s="2"/>
       <c r="K91" s="2"/>
     </row>
-    <row r="92" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B92" s="2"/>
       <c r="C92" s="2"/>
       <c r="D92" s="2"/>
@@ -2689,7 +2700,7 @@
       <c r="J92" s="2"/>
       <c r="K92" s="2"/>
     </row>
-    <row r="93" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B93" s="2"/>
       <c r="C93" s="2"/>
       <c r="D93" s="2"/>
@@ -2701,7 +2712,7 @@
       <c r="J93" s="2"/>
       <c r="K93" s="2"/>
     </row>
-    <row r="94" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B94" s="2"/>
       <c r="C94" s="2"/>
       <c r="D94" s="2"/>
@@ -2713,7 +2724,7 @@
       <c r="J94" s="2"/>
       <c r="K94" s="2"/>
     </row>
-    <row r="95" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B95" s="2"/>
       <c r="C95" s="2"/>
       <c r="D95" s="2"/>
@@ -2725,7 +2736,7 @@
       <c r="J95" s="2"/>
       <c r="K95" s="2"/>
     </row>
-    <row r="96" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B96" s="2"/>
       <c r="C96" s="2"/>
       <c r="D96" s="2"/>
@@ -2737,7 +2748,7 @@
       <c r="J96" s="2"/>
       <c r="K96" s="2"/>
     </row>
-    <row r="97" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B97" s="2"/>
       <c r="C97" s="2"/>
       <c r="D97" s="2"/>
@@ -2749,7 +2760,7 @@
       <c r="J97" s="2"/>
       <c r="K97" s="2"/>
     </row>
-    <row r="98" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B98" s="2"/>
       <c r="C98" s="2"/>
       <c r="D98" s="2"/>
@@ -2761,7 +2772,7 @@
       <c r="J98" s="2"/>
       <c r="K98" s="2"/>
     </row>
-    <row r="99" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B99" s="2"/>
       <c r="C99" s="2"/>
       <c r="D99" s="2"/>
@@ -2773,7 +2784,7 @@
       <c r="J99" s="2"/>
       <c r="K99" s="2"/>
     </row>
-    <row r="100" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B100" s="2"/>
       <c r="C100" s="2"/>
       <c r="D100" s="2"/>
@@ -2785,7 +2796,7 @@
       <c r="J100" s="2"/>
       <c r="K100" s="2"/>
     </row>
-    <row r="101" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B101" s="2"/>
       <c r="C101" s="2"/>
       <c r="D101" s="2"/>
@@ -2797,7 +2808,7 @@
       <c r="J101" s="2"/>
       <c r="K101" s="2"/>
     </row>
-    <row r="102" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B102" s="2"/>
       <c r="C102" s="2"/>
       <c r="D102" s="2"/>
@@ -2809,7 +2820,7 @@
       <c r="J102" s="2"/>
       <c r="K102" s="2"/>
     </row>
-    <row r="103" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B103" s="2"/>
       <c r="C103" s="2"/>
       <c r="D103" s="2"/>
@@ -2821,7 +2832,7 @@
       <c r="J103" s="2"/>
       <c r="K103" s="2"/>
     </row>
-    <row r="104" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B104" s="2"/>
       <c r="C104" s="2"/>
       <c r="D104" s="2"/>
@@ -2833,7 +2844,7 @@
       <c r="J104" s="2"/>
       <c r="K104" s="2"/>
     </row>
-    <row r="105" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B105" s="2"/>
       <c r="C105" s="2"/>
       <c r="D105" s="2"/>
@@ -2845,7 +2856,7 @@
       <c r="J105" s="2"/>
       <c r="K105" s="2"/>
     </row>
-    <row r="106" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B106" s="2"/>
       <c r="C106" s="2"/>
       <c r="D106" s="2"/>
@@ -2857,7 +2868,7 @@
       <c r="J106" s="2"/>
       <c r="K106" s="2"/>
     </row>
-    <row r="107" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="107" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B107" s="2"/>
       <c r="C107" s="2"/>
       <c r="D107" s="2"/>
@@ -2869,7 +2880,7 @@
       <c r="J107" s="2"/>
       <c r="K107" s="2"/>
     </row>
-    <row r="108" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="108" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B108" s="2"/>
       <c r="C108" s="2"/>
       <c r="D108" s="2"/>
@@ -2881,7 +2892,7 @@
       <c r="J108" s="2"/>
       <c r="K108" s="2"/>
     </row>
-    <row r="109" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="109" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B109" s="2"/>
       <c r="C109" s="2"/>
       <c r="D109" s="2"/>
@@ -2893,7 +2904,7 @@
       <c r="J109" s="2"/>
       <c r="K109" s="2"/>
     </row>
-    <row r="110" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="110" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B110" s="2"/>
       <c r="C110" s="2"/>
       <c r="D110" s="2"/>
@@ -2905,7 +2916,7 @@
       <c r="J110" s="2"/>
       <c r="K110" s="2"/>
     </row>
-    <row r="111" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="111" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B111" s="2"/>
       <c r="C111" s="2"/>
       <c r="D111" s="2"/>
@@ -2917,7 +2928,7 @@
       <c r="J111" s="2"/>
       <c r="K111" s="2"/>
     </row>
-    <row r="112" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="112" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B112" s="2"/>
       <c r="C112" s="2"/>
       <c r="D112" s="2"/>
@@ -2929,7 +2940,7 @@
       <c r="J112" s="2"/>
       <c r="K112" s="2"/>
     </row>
-    <row r="113" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="113" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B113" s="2"/>
       <c r="C113" s="2"/>
       <c r="D113" s="2"/>
@@ -2941,7 +2952,7 @@
       <c r="J113" s="2"/>
       <c r="K113" s="2"/>
     </row>
-    <row r="114" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="114" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B114" s="2"/>
       <c r="C114" s="2"/>
       <c r="D114" s="2"/>
@@ -2953,7 +2964,7 @@
       <c r="J114" s="2"/>
       <c r="K114" s="2"/>
     </row>
-    <row r="115" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="115" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B115" s="2"/>
       <c r="C115" s="2"/>
       <c r="D115" s="2"/>
@@ -2965,7 +2976,7 @@
       <c r="J115" s="2"/>
       <c r="K115" s="2"/>
     </row>
-    <row r="116" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="116" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B116" s="2"/>
       <c r="C116" s="2"/>
       <c r="D116" s="2"/>
@@ -2977,7 +2988,7 @@
       <c r="J116" s="2"/>
       <c r="K116" s="2"/>
     </row>
-    <row r="117" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="117" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B117" s="2"/>
       <c r="C117" s="2"/>
       <c r="D117" s="2"/>
@@ -2989,7 +3000,7 @@
       <c r="J117" s="2"/>
       <c r="K117" s="2"/>
     </row>
-    <row r="118" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="118" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B118" s="2"/>
       <c r="C118" s="2"/>
       <c r="D118" s="2"/>
@@ -3001,7 +3012,7 @@
       <c r="J118" s="2"/>
       <c r="K118" s="2"/>
     </row>
-    <row r="119" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="119" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B119" s="2"/>
       <c r="C119" s="2"/>
       <c r="D119" s="2"/>
@@ -3013,7 +3024,7 @@
       <c r="J119" s="2"/>
       <c r="K119" s="2"/>
     </row>
-    <row r="120" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="120" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B120" s="2"/>
       <c r="C120" s="2"/>
       <c r="D120" s="2"/>
@@ -3025,7 +3036,7 @@
       <c r="J120" s="2"/>
       <c r="K120" s="2"/>
     </row>
-    <row r="121" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="121" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B121" s="2"/>
       <c r="C121" s="2"/>
       <c r="D121" s="2"/>
@@ -3037,7 +3048,7 @@
       <c r="J121" s="2"/>
       <c r="K121" s="2"/>
     </row>
-    <row r="122" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="122" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B122" s="2"/>
       <c r="C122" s="2"/>
       <c r="D122" s="2"/>
@@ -3049,7 +3060,7 @@
       <c r="J122" s="2"/>
       <c r="K122" s="2"/>
     </row>
-    <row r="123" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="123" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B123" s="2"/>
       <c r="C123" s="2"/>
       <c r="D123" s="2"/>
@@ -3061,7 +3072,7 @@
       <c r="J123" s="2"/>
       <c r="K123" s="2"/>
     </row>
-    <row r="124" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="124" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B124" s="2"/>
       <c r="C124" s="2"/>
       <c r="D124" s="2"/>
@@ -3073,7 +3084,7 @@
       <c r="J124" s="2"/>
       <c r="K124" s="2"/>
     </row>
-    <row r="125" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="125" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B125" s="2"/>
       <c r="C125" s="2"/>
       <c r="D125" s="2"/>
@@ -3085,7 +3096,7 @@
       <c r="J125" s="2"/>
       <c r="K125" s="2"/>
     </row>
-    <row r="126" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="126" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B126" s="2"/>
       <c r="C126" s="2"/>
       <c r="D126" s="2"/>
@@ -3097,7 +3108,7 @@
       <c r="J126" s="2"/>
       <c r="K126" s="2"/>
     </row>
-    <row r="127" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="127" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B127" s="2"/>
       <c r="C127" s="2"/>
       <c r="D127" s="2"/>
@@ -3109,7 +3120,7 @@
       <c r="J127" s="2"/>
       <c r="K127" s="2"/>
     </row>
-    <row r="128" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="128" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B128" s="2"/>
       <c r="C128" s="2"/>
       <c r="D128" s="2"/>
@@ -3121,7 +3132,7 @@
       <c r="J128" s="2"/>
       <c r="K128" s="2"/>
     </row>
-    <row r="129" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="129" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B129" s="2"/>
       <c r="C129" s="2"/>
       <c r="D129" s="2"/>
@@ -3133,7 +3144,7 @@
       <c r="J129" s="2"/>
       <c r="K129" s="2"/>
     </row>
-    <row r="130" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="130" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B130" s="2"/>
       <c r="C130" s="2"/>
       <c r="D130" s="2"/>
@@ -3145,7 +3156,7 @@
       <c r="J130" s="2"/>
       <c r="K130" s="2"/>
     </row>
-    <row r="131" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="131" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B131" s="2"/>
       <c r="C131" s="2"/>
       <c r="D131" s="2"/>
@@ -3157,7 +3168,7 @@
       <c r="J131" s="2"/>
       <c r="K131" s="2"/>
     </row>
-    <row r="132" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="132" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B132" s="2"/>
       <c r="C132" s="2"/>
       <c r="D132" s="2"/>
@@ -3169,7 +3180,7 @@
       <c r="J132" s="2"/>
       <c r="K132" s="2"/>
     </row>
-    <row r="133" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="133" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B133" s="2"/>
       <c r="C133" s="2"/>
       <c r="D133" s="2"/>
@@ -3181,7 +3192,7 @@
       <c r="J133" s="2"/>
       <c r="K133" s="2"/>
     </row>
-    <row r="134" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="134" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B134" s="2"/>
       <c r="C134" s="2"/>
       <c r="D134" s="2"/>
@@ -3193,7 +3204,7 @@
       <c r="J134" s="2"/>
       <c r="K134" s="2"/>
     </row>
-    <row r="135" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="135" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B135" s="2"/>
       <c r="C135" s="2"/>
       <c r="D135" s="2"/>
@@ -3205,7 +3216,7 @@
       <c r="J135" s="2"/>
       <c r="K135" s="2"/>
     </row>
-    <row r="136" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="136" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B136" s="2"/>
       <c r="C136" s="2"/>
       <c r="D136" s="2"/>
@@ -3217,7 +3228,7 @@
       <c r="J136" s="2"/>
       <c r="K136" s="2"/>
     </row>
-    <row r="137" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="137" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B137" s="2"/>
       <c r="C137" s="2"/>
       <c r="D137" s="2"/>
@@ -3229,7 +3240,7 @@
       <c r="J137" s="2"/>
       <c r="K137" s="2"/>
     </row>
-    <row r="138" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="138" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B138" s="2"/>
       <c r="C138" s="2"/>
       <c r="D138" s="2"/>
@@ -3241,7 +3252,7 @@
       <c r="J138" s="2"/>
       <c r="K138" s="2"/>
     </row>
-    <row r="139" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="139" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B139" s="2"/>
       <c r="C139" s="2"/>
       <c r="D139" s="2"/>
@@ -3253,7 +3264,7 @@
       <c r="J139" s="2"/>
       <c r="K139" s="2"/>
     </row>
-    <row r="140" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="140" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B140" s="2"/>
       <c r="C140" s="2"/>
       <c r="D140" s="2"/>
@@ -3265,7 +3276,7 @@
       <c r="J140" s="2"/>
       <c r="K140" s="2"/>
     </row>
-    <row r="141" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="141" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B141" s="2"/>
       <c r="C141" s="2"/>
       <c r="D141" s="2"/>
@@ -3277,7 +3288,7 @@
       <c r="J141" s="2"/>
       <c r="K141" s="2"/>
     </row>
-    <row r="142" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="142" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B142" s="2"/>
       <c r="C142" s="2"/>
       <c r="D142" s="2"/>
@@ -3289,7 +3300,7 @@
       <c r="J142" s="2"/>
       <c r="K142" s="2"/>
     </row>
-    <row r="143" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="143" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B143" s="2"/>
       <c r="C143" s="2"/>
       <c r="D143" s="2"/>
@@ -3301,7 +3312,7 @@
       <c r="J143" s="2"/>
       <c r="K143" s="2"/>
     </row>
-    <row r="144" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="144" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B144" s="2"/>
       <c r="C144" s="2"/>
       <c r="D144" s="2"/>
@@ -3313,7 +3324,7 @@
       <c r="J144" s="2"/>
       <c r="K144" s="2"/>
     </row>
-    <row r="145" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="145" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B145" s="2"/>
       <c r="C145" s="2"/>
       <c r="D145" s="2"/>
@@ -3325,7 +3336,7 @@
       <c r="J145" s="2"/>
       <c r="K145" s="2"/>
     </row>
-    <row r="146" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="146" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B146" s="2"/>
       <c r="C146" s="2"/>
       <c r="D146" s="2"/>
@@ -3337,7 +3348,7 @@
       <c r="J146" s="2"/>
       <c r="K146" s="2"/>
     </row>
-    <row r="147" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="147" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B147" s="2"/>
       <c r="C147" s="2"/>
       <c r="D147" s="2"/>
@@ -3349,7 +3360,7 @@
       <c r="J147" s="2"/>
       <c r="K147" s="2"/>
     </row>
-    <row r="148" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="148" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B148" s="2"/>
       <c r="C148" s="2"/>
       <c r="D148" s="2"/>
@@ -3361,7 +3372,7 @@
       <c r="J148" s="2"/>
       <c r="K148" s="2"/>
     </row>
-    <row r="149" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="149" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B149" s="2"/>
       <c r="C149" s="2"/>
       <c r="D149" s="2"/>
@@ -3373,7 +3384,7 @@
       <c r="J149" s="2"/>
       <c r="K149" s="2"/>
     </row>
-    <row r="150" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="150" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B150" s="2"/>
       <c r="C150" s="2"/>
       <c r="D150" s="2"/>
@@ -3385,7 +3396,7 @@
       <c r="J150" s="2"/>
       <c r="K150" s="2"/>
     </row>
-    <row r="151" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="151" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B151" s="2"/>
       <c r="C151" s="2"/>
       <c r="D151" s="2"/>
@@ -3397,7 +3408,7 @@
       <c r="J151" s="2"/>
       <c r="K151" s="2"/>
     </row>
-    <row r="152" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="152" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B152" s="2"/>
       <c r="C152" s="2"/>
       <c r="D152" s="2"/>
@@ -3409,7 +3420,7 @@
       <c r="J152" s="2"/>
       <c r="K152" s="2"/>
     </row>
-    <row r="153" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="153" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B153" s="2"/>
       <c r="C153" s="2"/>
       <c r="D153" s="2"/>
@@ -3421,7 +3432,7 @@
       <c r="J153" s="2"/>
       <c r="K153" s="2"/>
     </row>
-    <row r="154" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="154" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B154" s="2"/>
       <c r="C154" s="2"/>
       <c r="D154" s="2"/>
@@ -3433,7 +3444,7 @@
       <c r="J154" s="2"/>
       <c r="K154" s="2"/>
     </row>
-    <row r="155" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="155" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B155" s="2"/>
       <c r="C155" s="2"/>
       <c r="D155" s="2"/>
@@ -3445,7 +3456,7 @@
       <c r="J155" s="2"/>
       <c r="K155" s="2"/>
     </row>
-    <row r="156" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="156" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B156" s="2"/>
       <c r="C156" s="2"/>
       <c r="D156" s="2"/>
@@ -3457,7 +3468,7 @@
       <c r="J156" s="2"/>
       <c r="K156" s="2"/>
     </row>
-    <row r="157" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="157" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B157" s="2"/>
       <c r="C157" s="2"/>
       <c r="D157" s="2"/>
@@ -3469,7 +3480,7 @@
       <c r="J157" s="2"/>
       <c r="K157" s="2"/>
     </row>
-    <row r="158" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="158" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B158" s="2"/>
       <c r="C158" s="2"/>
       <c r="D158" s="2"/>
@@ -3481,7 +3492,7 @@
       <c r="J158" s="2"/>
       <c r="K158" s="2"/>
     </row>
-    <row r="159" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="159" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B159" s="2"/>
       <c r="C159" s="2"/>
       <c r="D159" s="2"/>
@@ -3493,7 +3504,7 @@
       <c r="J159" s="2"/>
       <c r="K159" s="2"/>
     </row>
-    <row r="160" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="160" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B160" s="2"/>
       <c r="C160" s="2"/>
       <c r="D160" s="2"/>
@@ -3505,7 +3516,7 @@
       <c r="J160" s="2"/>
       <c r="K160" s="2"/>
     </row>
-    <row r="161" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="161" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B161" s="2"/>
       <c r="C161" s="2"/>
       <c r="D161" s="2"/>
@@ -3517,7 +3528,7 @@
       <c r="J161" s="2"/>
       <c r="K161" s="2"/>
     </row>
-    <row r="162" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="162" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B162" s="2"/>
       <c r="C162" s="2"/>
       <c r="D162" s="2"/>
@@ -3529,7 +3540,7 @@
       <c r="J162" s="2"/>
       <c r="K162" s="2"/>
     </row>
-    <row r="163" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="163" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B163" s="2"/>
       <c r="C163" s="2"/>
       <c r="D163" s="2"/>
@@ -3541,7 +3552,7 @@
       <c r="J163" s="2"/>
       <c r="K163" s="2"/>
     </row>
-    <row r="164" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="164" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B164" s="2"/>
       <c r="C164" s="2"/>
       <c r="D164" s="2"/>
@@ -3553,7 +3564,7 @@
       <c r="J164" s="2"/>
       <c r="K164" s="2"/>
     </row>
-    <row r="165" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="165" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B165" s="2"/>
       <c r="C165" s="2"/>
       <c r="D165" s="2"/>
@@ -3565,7 +3576,7 @@
       <c r="J165" s="2"/>
       <c r="K165" s="2"/>
     </row>
-    <row r="166" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="166" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B166" s="2"/>
       <c r="C166" s="2"/>
       <c r="D166" s="2"/>
@@ -3577,7 +3588,7 @@
       <c r="J166" s="2"/>
       <c r="K166" s="2"/>
     </row>
-    <row r="167" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="167" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B167" s="2"/>
       <c r="C167" s="2"/>
       <c r="D167" s="2"/>
@@ -3589,7 +3600,7 @@
       <c r="J167" s="2"/>
       <c r="K167" s="2"/>
     </row>
-    <row r="168" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="168" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B168" s="2"/>
       <c r="C168" s="2"/>
       <c r="D168" s="2"/>
@@ -3601,7 +3612,7 @@
       <c r="J168" s="2"/>
       <c r="K168" s="2"/>
     </row>
-    <row r="169" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="169" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B169" s="2"/>
       <c r="C169" s="2"/>
       <c r="D169" s="2"/>
@@ -3613,7 +3624,7 @@
       <c r="J169" s="2"/>
       <c r="K169" s="2"/>
     </row>
-    <row r="170" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="170" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B170" s="2"/>
       <c r="C170" s="2"/>
       <c r="D170" s="2"/>
@@ -3625,7 +3636,7 @@
       <c r="J170" s="2"/>
       <c r="K170" s="2"/>
     </row>
-    <row r="171" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="171" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B171" s="2"/>
       <c r="C171" s="2"/>
       <c r="D171" s="2"/>
@@ -3637,7 +3648,7 @@
       <c r="J171" s="2"/>
       <c r="K171" s="2"/>
     </row>
-    <row r="172" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="172" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B172" s="2"/>
       <c r="C172" s="2"/>
       <c r="D172" s="2"/>
@@ -3649,7 +3660,7 @@
       <c r="J172" s="2"/>
       <c r="K172" s="2"/>
     </row>
-    <row r="173" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="173" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B173" s="2"/>
       <c r="C173" s="2"/>
       <c r="D173" s="2"/>
@@ -3661,7 +3672,7 @@
       <c r="J173" s="2"/>
       <c r="K173" s="2"/>
     </row>
-    <row r="174" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="174" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B174" s="2"/>
       <c r="C174" s="2"/>
       <c r="D174" s="2"/>
@@ -3673,7 +3684,7 @@
       <c r="J174" s="2"/>
       <c r="K174" s="2"/>
     </row>
-    <row r="175" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="175" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B175" s="2"/>
       <c r="C175" s="2"/>
       <c r="D175" s="2"/>
@@ -3685,7 +3696,7 @@
       <c r="J175" s="2"/>
       <c r="K175" s="2"/>
     </row>
-    <row r="176" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="176" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B176" s="2"/>
       <c r="C176" s="2"/>
       <c r="D176" s="2"/>
@@ -3697,7 +3708,7 @@
       <c r="J176" s="2"/>
       <c r="K176" s="2"/>
     </row>
-    <row r="177" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="177" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B177" s="2"/>
       <c r="C177" s="2"/>
       <c r="D177" s="2"/>
@@ -3709,7 +3720,7 @@
       <c r="J177" s="2"/>
       <c r="K177" s="2"/>
     </row>
-    <row r="178" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="178" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B178" s="2"/>
       <c r="C178" s="2"/>
       <c r="D178" s="2"/>
@@ -3721,7 +3732,7 @@
       <c r="J178" s="2"/>
       <c r="K178" s="2"/>
     </row>
-    <row r="179" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="179" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B179" s="2"/>
       <c r="C179" s="2"/>
       <c r="D179" s="2"/>
@@ -3733,7 +3744,7 @@
       <c r="J179" s="2"/>
       <c r="K179" s="2"/>
     </row>
-    <row r="180" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="180" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B180" s="2"/>
       <c r="C180" s="2"/>
       <c r="D180" s="2"/>
@@ -3745,7 +3756,7 @@
       <c r="J180" s="2"/>
       <c r="K180" s="2"/>
     </row>
-    <row r="181" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="181" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B181" s="2"/>
       <c r="C181" s="2"/>
       <c r="D181" s="2"/>
@@ -3757,7 +3768,7 @@
       <c r="J181" s="2"/>
       <c r="K181" s="2"/>
     </row>
-    <row r="182" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="182" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B182" s="2"/>
       <c r="C182" s="2"/>
       <c r="D182" s="2"/>
@@ -3769,7 +3780,7 @@
       <c r="J182" s="2"/>
       <c r="K182" s="2"/>
     </row>
-    <row r="183" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="183" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B183" s="2"/>
       <c r="C183" s="2"/>
       <c r="D183" s="2"/>
@@ -3781,7 +3792,7 @@
       <c r="J183" s="2"/>
       <c r="K183" s="2"/>
     </row>
-    <row r="184" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="184" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B184" s="2"/>
       <c r="C184" s="2"/>
       <c r="D184" s="2"/>
@@ -3793,7 +3804,7 @@
       <c r="J184" s="2"/>
       <c r="K184" s="2"/>
     </row>
-    <row r="185" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="185" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B185" s="2"/>
       <c r="C185" s="2"/>
       <c r="D185" s="2"/>
@@ -3805,7 +3816,7 @@
       <c r="J185" s="2"/>
       <c r="K185" s="2"/>
     </row>
-    <row r="186" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="186" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B186" s="2"/>
       <c r="C186" s="2"/>
       <c r="D186" s="2"/>
@@ -3817,7 +3828,7 @@
       <c r="J186" s="2"/>
       <c r="K186" s="2"/>
     </row>
-    <row r="187" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="187" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B187" s="2"/>
       <c r="C187" s="2"/>
       <c r="D187" s="2"/>
@@ -3829,7 +3840,7 @@
       <c r="J187" s="2"/>
       <c r="K187" s="2"/>
     </row>
-    <row r="188" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="188" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B188" s="2"/>
       <c r="C188" s="2"/>
       <c r="D188" s="2"/>
@@ -3841,7 +3852,7 @@
       <c r="J188" s="2"/>
       <c r="K188" s="2"/>
     </row>
-    <row r="189" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="189" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B189" s="2"/>
       <c r="C189" s="2"/>
       <c r="D189" s="2"/>
@@ -3853,7 +3864,7 @@
       <c r="J189" s="2"/>
       <c r="K189" s="2"/>
     </row>
-    <row r="190" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="190" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B190" s="2"/>
       <c r="C190" s="2"/>
       <c r="D190" s="2"/>
@@ -3865,7 +3876,7 @@
       <c r="J190" s="2"/>
       <c r="K190" s="2"/>
     </row>
-    <row r="191" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="191" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B191" s="2"/>
       <c r="C191" s="2"/>
       <c r="D191" s="2"/>
@@ -3877,7 +3888,7 @@
       <c r="J191" s="2"/>
       <c r="K191" s="2"/>
     </row>
-    <row r="192" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="192" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B192" s="2"/>
       <c r="C192" s="2"/>
       <c r="D192" s="2"/>
@@ -3889,7 +3900,7 @@
       <c r="J192" s="2"/>
       <c r="K192" s="2"/>
     </row>
-    <row r="193" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="193" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B193" s="2"/>
       <c r="C193" s="2"/>
       <c r="D193" s="2"/>
@@ -3901,7 +3912,7 @@
       <c r="J193" s="2"/>
       <c r="K193" s="2"/>
     </row>
-    <row r="194" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="194" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B194" s="2"/>
       <c r="C194" s="2"/>
       <c r="D194" s="2"/>
@@ -3913,7 +3924,7 @@
       <c r="J194" s="2"/>
       <c r="K194" s="2"/>
     </row>
-    <row r="195" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="195" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B195" s="2"/>
       <c r="C195" s="2"/>
       <c r="D195" s="2"/>
@@ -3925,7 +3936,7 @@
       <c r="J195" s="2"/>
       <c r="K195" s="2"/>
     </row>
-    <row r="196" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="196" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B196" s="2"/>
       <c r="C196" s="2"/>
       <c r="D196" s="2"/>
@@ -3937,7 +3948,7 @@
       <c r="J196" s="2"/>
       <c r="K196" s="2"/>
     </row>
-    <row r="197" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="197" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B197" s="2"/>
       <c r="C197" s="2"/>
       <c r="D197" s="2"/>
@@ -3949,7 +3960,7 @@
       <c r="J197" s="2"/>
       <c r="K197" s="2"/>
     </row>
-    <row r="198" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="198" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B198" s="2"/>
       <c r="C198" s="2"/>
       <c r="D198" s="2"/>
@@ -3961,7 +3972,7 @@
       <c r="J198" s="2"/>
       <c r="K198" s="2"/>
     </row>
-    <row r="199" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="199" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B199" s="2"/>
       <c r="C199" s="2"/>
       <c r="D199" s="2"/>
@@ -3973,7 +3984,7 @@
       <c r="J199" s="2"/>
       <c r="K199" s="2"/>
     </row>
-    <row r="200" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="200" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B200" s="2"/>
       <c r="C200" s="2"/>
       <c r="D200" s="2"/>
@@ -3985,7 +3996,7 @@
       <c r="J200" s="2"/>
       <c r="K200" s="2"/>
     </row>
-    <row r="201" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="201" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B201" s="2"/>
       <c r="C201" s="2"/>
       <c r="D201" s="2"/>
@@ -3997,7 +4008,7 @@
       <c r="J201" s="2"/>
       <c r="K201" s="2"/>
     </row>
-    <row r="202" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="202" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B202" s="2"/>
       <c r="C202" s="2"/>
       <c r="D202" s="2"/>
@@ -4009,7 +4020,7 @@
       <c r="J202" s="2"/>
       <c r="K202" s="2"/>
     </row>
-    <row r="203" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="203" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B203" s="2"/>
       <c r="C203" s="2"/>
       <c r="D203" s="2"/>
@@ -4021,7 +4032,7 @@
       <c r="J203" s="2"/>
       <c r="K203" s="2"/>
     </row>
-    <row r="204" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="204" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B204" s="2"/>
       <c r="C204" s="2"/>
       <c r="D204" s="2"/>
@@ -4033,7 +4044,7 @@
       <c r="J204" s="2"/>
       <c r="K204" s="2"/>
     </row>
-    <row r="205" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="205" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B205" s="2"/>
       <c r="C205" s="2"/>
       <c r="D205" s="2"/>
@@ -4045,7 +4056,7 @@
       <c r="J205" s="2"/>
       <c r="K205" s="2"/>
     </row>
-    <row r="206" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="206" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B206" s="2"/>
       <c r="C206" s="2"/>
       <c r="D206" s="2"/>
@@ -4057,7 +4068,7 @@
       <c r="J206" s="2"/>
       <c r="K206" s="2"/>
     </row>
-    <row r="207" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="207" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B207" s="2"/>
       <c r="C207" s="2"/>
       <c r="D207" s="2"/>
@@ -4069,7 +4080,7 @@
       <c r="J207" s="2"/>
       <c r="K207" s="2"/>
     </row>
-    <row r="208" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="208" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B208" s="2"/>
       <c r="C208" s="2"/>
       <c r="D208" s="2"/>
@@ -4081,7 +4092,7 @@
       <c r="J208" s="2"/>
       <c r="K208" s="2"/>
     </row>
-    <row r="209" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="209" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B209" s="2"/>
       <c r="C209" s="2"/>
       <c r="D209" s="2"/>
@@ -4093,7 +4104,7 @@
       <c r="J209" s="2"/>
       <c r="K209" s="2"/>
     </row>
-    <row r="210" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="210" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B210" s="2"/>
       <c r="C210" s="2"/>
       <c r="D210" s="2"/>
@@ -4105,7 +4116,7 @@
       <c r="J210" s="2"/>
       <c r="K210" s="2"/>
     </row>
-    <row r="211" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="211" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B211" s="2"/>
       <c r="C211" s="2"/>
       <c r="D211" s="2"/>
@@ -4117,7 +4128,7 @@
       <c r="J211" s="2"/>
       <c r="K211" s="2"/>
     </row>
-    <row r="212" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="212" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B212" s="2"/>
       <c r="C212" s="2"/>
       <c r="D212" s="2"/>
@@ -4129,7 +4140,7 @@
       <c r="J212" s="2"/>
       <c r="K212" s="2"/>
     </row>
-    <row r="213" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="213" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B213" s="2"/>
       <c r="C213" s="2"/>
       <c r="D213" s="2"/>
@@ -4141,7 +4152,7 @@
       <c r="J213" s="2"/>
       <c r="K213" s="2"/>
     </row>
-    <row r="214" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="214" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B214" s="2"/>
       <c r="C214" s="2"/>
       <c r="D214" s="2"/>
@@ -4153,7 +4164,7 @@
       <c r="J214" s="2"/>
       <c r="K214" s="2"/>
     </row>
-    <row r="215" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="215" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B215" s="2"/>
       <c r="C215" s="2"/>
       <c r="D215" s="2"/>
@@ -4165,7 +4176,7 @@
       <c r="J215" s="2"/>
       <c r="K215" s="2"/>
     </row>
-    <row r="216" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="216" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B216" s="2"/>
       <c r="C216" s="2"/>
       <c r="D216" s="2"/>
@@ -4177,7 +4188,7 @@
       <c r="J216" s="2"/>
       <c r="K216" s="2"/>
     </row>
-    <row r="217" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="217" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B217" s="2"/>
       <c r="C217" s="2"/>
       <c r="D217" s="2"/>
@@ -4189,7 +4200,7 @@
       <c r="J217" s="2"/>
       <c r="K217" s="2"/>
     </row>
-    <row r="218" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="218" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B218" s="2"/>
       <c r="C218" s="2"/>
       <c r="D218" s="2"/>
@@ -4201,7 +4212,7 @@
       <c r="J218" s="2"/>
       <c r="K218" s="2"/>
     </row>
-    <row r="219" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="219" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B219" s="2"/>
       <c r="C219" s="2"/>
       <c r="D219" s="2"/>
@@ -4213,7 +4224,7 @@
       <c r="J219" s="2"/>
       <c r="K219" s="2"/>
     </row>
-    <row r="220" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="220" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B220" s="2"/>
       <c r="C220" s="2"/>
       <c r="D220" s="2"/>
@@ -4225,7 +4236,7 @@
       <c r="J220" s="2"/>
       <c r="K220" s="2"/>
     </row>
-    <row r="221" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="221" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B221" s="2"/>
       <c r="C221" s="2"/>
       <c r="D221" s="2"/>
@@ -4237,7 +4248,7 @@
       <c r="J221" s="2"/>
       <c r="K221" s="2"/>
     </row>
-    <row r="222" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="222" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B222" s="2"/>
       <c r="C222" s="2"/>
       <c r="D222" s="2"/>
@@ -4249,7 +4260,7 @@
       <c r="J222" s="2"/>
       <c r="K222" s="2"/>
     </row>
-    <row r="223" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="223" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B223" s="2"/>
       <c r="C223" s="2"/>
       <c r="D223" s="2"/>
@@ -4261,7 +4272,7 @@
       <c r="J223" s="2"/>
       <c r="K223" s="2"/>
     </row>
-    <row r="224" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="224" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B224" s="2"/>
       <c r="C224" s="2"/>
       <c r="D224" s="2"/>
@@ -4273,7 +4284,7 @@
       <c r="J224" s="2"/>
       <c r="K224" s="2"/>
     </row>
-    <row r="225" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="225" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B225" s="2"/>
       <c r="C225" s="2"/>
       <c r="D225" s="2"/>
@@ -4285,7 +4296,7 @@
       <c r="J225" s="2"/>
       <c r="K225" s="2"/>
     </row>
-    <row r="226" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="226" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B226" s="2"/>
       <c r="C226" s="2"/>
       <c r="D226" s="2"/>
@@ -4297,7 +4308,7 @@
       <c r="J226" s="2"/>
       <c r="K226" s="2"/>
     </row>
-    <row r="227" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="227" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B227" s="2"/>
       <c r="C227" s="2"/>
       <c r="D227" s="2"/>
@@ -4309,7 +4320,7 @@
       <c r="J227" s="2"/>
       <c r="K227" s="2"/>
     </row>
-    <row r="228" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="228" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B228" s="2"/>
       <c r="C228" s="2"/>
       <c r="D228" s="2"/>
@@ -4321,7 +4332,7 @@
       <c r="J228" s="2"/>
       <c r="K228" s="2"/>
     </row>
-    <row r="229" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="229" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B229" s="2"/>
       <c r="C229" s="2"/>
       <c r="D229" s="2"/>
@@ -4333,7 +4344,7 @@
       <c r="J229" s="2"/>
       <c r="K229" s="2"/>
     </row>
-    <row r="230" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="230" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B230" s="2"/>
       <c r="C230" s="2"/>
       <c r="D230" s="2"/>
@@ -4345,7 +4356,7 @@
       <c r="J230" s="2"/>
       <c r="K230" s="2"/>
     </row>
-    <row r="231" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="231" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B231" s="2"/>
       <c r="C231" s="2"/>
       <c r="D231" s="2"/>
@@ -4357,7 +4368,7 @@
       <c r="J231" s="2"/>
       <c r="K231" s="2"/>
     </row>
-    <row r="232" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="232" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B232" s="2"/>
       <c r="C232" s="2"/>
       <c r="D232" s="2"/>
@@ -4369,7 +4380,7 @@
       <c r="J232" s="2"/>
       <c r="K232" s="2"/>
     </row>
-    <row r="233" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="233" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B233" s="2"/>
       <c r="C233" s="2"/>
       <c r="D233" s="2"/>
@@ -4381,7 +4392,7 @@
       <c r="J233" s="2"/>
       <c r="K233" s="2"/>
     </row>
-    <row r="234" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="234" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B234" s="2"/>
       <c r="C234" s="2"/>
       <c r="D234" s="2"/>
@@ -4393,7 +4404,7 @@
       <c r="J234" s="2"/>
       <c r="K234" s="2"/>
     </row>
-    <row r="235" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="235" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B235" s="2"/>
       <c r="C235" s="2"/>
       <c r="D235" s="2"/>
@@ -4405,7 +4416,7 @@
       <c r="J235" s="2"/>
       <c r="K235" s="2"/>
     </row>
-    <row r="236" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="236" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B236" s="2"/>
       <c r="C236" s="2"/>
       <c r="D236" s="2"/>
@@ -4417,7 +4428,7 @@
       <c r="J236" s="2"/>
       <c r="K236" s="2"/>
     </row>
-    <row r="237" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="237" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B237" s="2"/>
       <c r="C237" s="2"/>
       <c r="D237" s="2"/>
@@ -4429,7 +4440,7 @@
       <c r="J237" s="2"/>
       <c r="K237" s="2"/>
     </row>
-    <row r="238" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="238" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B238" s="2"/>
       <c r="C238" s="2"/>
       <c r="D238" s="2"/>
@@ -4441,7 +4452,7 @@
       <c r="J238" s="2"/>
       <c r="K238" s="2"/>
     </row>
-    <row r="239" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="239" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B239" s="2"/>
       <c r="C239" s="2"/>
       <c r="D239" s="2"/>
@@ -4453,7 +4464,7 @@
       <c r="J239" s="2"/>
       <c r="K239" s="2"/>
     </row>
-    <row r="240" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="240" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B240" s="2"/>
       <c r="C240" s="2"/>
       <c r="D240" s="2"/>
@@ -4465,7 +4476,7 @@
       <c r="J240" s="2"/>
       <c r="K240" s="2"/>
     </row>
-    <row r="241" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="241" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B241" s="2"/>
       <c r="C241" s="2"/>
       <c r="D241" s="2"/>
@@ -4477,7 +4488,7 @@
       <c r="J241" s="2"/>
       <c r="K241" s="2"/>
     </row>
-    <row r="242" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="242" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B242" s="2"/>
       <c r="C242" s="2"/>
       <c r="D242" s="2"/>
@@ -4489,7 +4500,7 @@
       <c r="J242" s="2"/>
       <c r="K242" s="2"/>
     </row>
-    <row r="243" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="243" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B243" s="2"/>
       <c r="C243" s="2"/>
       <c r="D243" s="2"/>
@@ -4501,7 +4512,7 @@
       <c r="J243" s="2"/>
       <c r="K243" s="2"/>
     </row>
-    <row r="244" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="244" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B244" s="2"/>
       <c r="C244" s="2"/>
       <c r="D244" s="2"/>
@@ -4513,7 +4524,7 @@
       <c r="J244" s="2"/>
       <c r="K244" s="2"/>
     </row>
-    <row r="245" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="245" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B245" s="2"/>
       <c r="C245" s="2"/>
       <c r="D245" s="2"/>
@@ -4525,7 +4536,7 @@
       <c r="J245" s="2"/>
       <c r="K245" s="2"/>
     </row>
-    <row r="246" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="246" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B246" s="2"/>
       <c r="C246" s="2"/>
       <c r="D246" s="2"/>
@@ -4537,7 +4548,7 @@
       <c r="J246" s="2"/>
       <c r="K246" s="2"/>
     </row>
-    <row r="247" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="247" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B247" s="2"/>
       <c r="C247" s="2"/>
       <c r="D247" s="2"/>
@@ -4549,7 +4560,7 @@
       <c r="J247" s="2"/>
       <c r="K247" s="2"/>
     </row>
-    <row r="248" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="248" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B248" s="2"/>
       <c r="C248" s="2"/>
       <c r="D248" s="2"/>
@@ -4561,7 +4572,7 @@
       <c r="J248" s="2"/>
       <c r="K248" s="2"/>
     </row>
-    <row r="249" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="249" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B249" s="2"/>
       <c r="C249" s="2"/>
       <c r="D249" s="2"/>
@@ -4573,7 +4584,7 @@
       <c r="J249" s="2"/>
       <c r="K249" s="2"/>
     </row>
-    <row r="250" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="250" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B250" s="2"/>
       <c r="C250" s="2"/>
       <c r="D250" s="2"/>
@@ -4585,7 +4596,7 @@
       <c r="J250" s="2"/>
       <c r="K250" s="2"/>
     </row>
-    <row r="251" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="251" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B251" s="2"/>
       <c r="C251" s="2"/>
       <c r="D251" s="2"/>
@@ -4597,7 +4608,7 @@
       <c r="J251" s="2"/>
       <c r="K251" s="2"/>
     </row>
-    <row r="252" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="252" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B252" s="2"/>
       <c r="C252" s="2"/>
       <c r="D252" s="2"/>
@@ -4609,7 +4620,7 @@
       <c r="J252" s="2"/>
       <c r="K252" s="2"/>
     </row>
-    <row r="253" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="253" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B253" s="2"/>
       <c r="C253" s="2"/>
       <c r="D253" s="2"/>
@@ -4621,7 +4632,7 @@
       <c r="J253" s="2"/>
       <c r="K253" s="2"/>
     </row>
-    <row r="254" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="254" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B254" s="2"/>
       <c r="C254" s="2"/>
       <c r="D254" s="2"/>
@@ -4633,7 +4644,7 @@
       <c r="J254" s="2"/>
       <c r="K254" s="2"/>
     </row>
-    <row r="255" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="255" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B255" s="2"/>
       <c r="C255" s="2"/>
       <c r="D255" s="2"/>
@@ -4645,7 +4656,7 @@
       <c r="J255" s="2"/>
       <c r="K255" s="2"/>
     </row>
-    <row r="256" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="256" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B256" s="2"/>
       <c r="C256" s="2"/>
       <c r="D256" s="2"/>
@@ -4657,7 +4668,7 @@
       <c r="J256" s="2"/>
       <c r="K256" s="2"/>
     </row>
-    <row r="257" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="257" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B257" s="2"/>
       <c r="C257" s="2"/>
       <c r="D257" s="2"/>
@@ -4669,7 +4680,7 @@
       <c r="J257" s="2"/>
       <c r="K257" s="2"/>
     </row>
-    <row r="258" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="258" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B258" s="2"/>
       <c r="C258" s="2"/>
       <c r="D258" s="2"/>
@@ -4681,7 +4692,7 @@
       <c r="J258" s="2"/>
       <c r="K258" s="2"/>
     </row>
-    <row r="259" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="259" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B259" s="2"/>
       <c r="C259" s="2"/>
       <c r="D259" s="2"/>
@@ -4693,7 +4704,7 @@
       <c r="J259" s="2"/>
       <c r="K259" s="2"/>
     </row>
-    <row r="260" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="260" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B260" s="2"/>
       <c r="C260" s="2"/>
       <c r="D260" s="2"/>
@@ -4705,7 +4716,7 @@
       <c r="J260" s="2"/>
       <c r="K260" s="2"/>
     </row>
-    <row r="261" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="261" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B261" s="2"/>
       <c r="C261" s="2"/>
       <c r="D261" s="2"/>
@@ -4717,7 +4728,7 @@
       <c r="J261" s="2"/>
       <c r="K261" s="2"/>
     </row>
-    <row r="262" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="262" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B262" s="2"/>
       <c r="C262" s="2"/>
       <c r="D262" s="2"/>
@@ -4729,7 +4740,7 @@
       <c r="J262" s="2"/>
       <c r="K262" s="2"/>
     </row>
-    <row r="263" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="263" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B263" s="2"/>
       <c r="C263" s="2"/>
       <c r="D263" s="2"/>
@@ -4741,7 +4752,7 @@
       <c r="J263" s="2"/>
       <c r="K263" s="2"/>
     </row>
-    <row r="264" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="264" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B264" s="2"/>
       <c r="C264" s="2"/>
       <c r="D264" s="2"/>
@@ -4753,7 +4764,7 @@
       <c r="J264" s="2"/>
       <c r="K264" s="2"/>
     </row>
-    <row r="265" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="265" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B265" s="2"/>
       <c r="C265" s="2"/>
       <c r="D265" s="2"/>
@@ -4765,7 +4776,7 @@
       <c r="J265" s="2"/>
       <c r="K265" s="2"/>
     </row>
-    <row r="266" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="266" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B266" s="2"/>
       <c r="C266" s="2"/>
       <c r="D266" s="2"/>
@@ -4777,7 +4788,7 @@
       <c r="J266" s="2"/>
       <c r="K266" s="2"/>
     </row>
-    <row r="267" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="267" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B267" s="2"/>
       <c r="C267" s="2"/>
       <c r="D267" s="2"/>
@@ -4789,7 +4800,7 @@
       <c r="J267" s="2"/>
       <c r="K267" s="2"/>
     </row>
-    <row r="268" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="268" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B268" s="2"/>
       <c r="C268" s="2"/>
       <c r="D268" s="2"/>
@@ -4801,7 +4812,7 @@
       <c r="J268" s="2"/>
       <c r="K268" s="2"/>
     </row>
-    <row r="269" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="269" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B269" s="2"/>
       <c r="C269" s="2"/>
       <c r="D269" s="2"/>
@@ -4813,7 +4824,7 @@
       <c r="J269" s="2"/>
       <c r="K269" s="2"/>
     </row>
-    <row r="270" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="270" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B270" s="2"/>
       <c r="C270" s="2"/>
       <c r="D270" s="2"/>
@@ -4825,7 +4836,7 @@
       <c r="J270" s="2"/>
       <c r="K270" s="2"/>
     </row>
-    <row r="271" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="271" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B271" s="2"/>
       <c r="C271" s="2"/>
       <c r="D271" s="2"/>
@@ -4837,7 +4848,7 @@
       <c r="J271" s="2"/>
       <c r="K271" s="2"/>
     </row>
-    <row r="272" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="272" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B272" s="2"/>
       <c r="C272" s="2"/>
       <c r="D272" s="2"/>
@@ -4849,7 +4860,7 @@
       <c r="J272" s="2"/>
       <c r="K272" s="2"/>
     </row>
-    <row r="273" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="273" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B273" s="2"/>
       <c r="C273" s="2"/>
       <c r="D273" s="2"/>
@@ -4861,7 +4872,7 @@
       <c r="J273" s="2"/>
       <c r="K273" s="2"/>
     </row>
-    <row r="274" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="274" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B274" s="2"/>
       <c r="C274" s="2"/>
       <c r="D274" s="2"/>
@@ -4873,7 +4884,7 @@
       <c r="J274" s="2"/>
       <c r="K274" s="2"/>
     </row>
-    <row r="275" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="275" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B275" s="2"/>
       <c r="C275" s="2"/>
       <c r="D275" s="2"/>
@@ -4885,7 +4896,7 @@
       <c r="J275" s="2"/>
       <c r="K275" s="2"/>
     </row>
-    <row r="276" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="276" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B276" s="2"/>
       <c r="C276" s="2"/>
       <c r="D276" s="2"/>
@@ -4897,7 +4908,7 @@
       <c r="J276" s="2"/>
       <c r="K276" s="2"/>
     </row>
-    <row r="277" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="277" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B277" s="2"/>
       <c r="C277" s="2"/>
       <c r="D277" s="2"/>
@@ -4909,7 +4920,7 @@
       <c r="J277" s="2"/>
       <c r="K277" s="2"/>
     </row>
-    <row r="278" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="278" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B278" s="2"/>
       <c r="C278" s="2"/>
       <c r="D278" s="2"/>
@@ -4921,7 +4932,7 @@
       <c r="J278" s="2"/>
       <c r="K278" s="2"/>
     </row>
-    <row r="279" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="279" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B279" s="2"/>
       <c r="C279" s="2"/>
       <c r="D279" s="2"/>
@@ -4933,7 +4944,7 @@
       <c r="J279" s="2"/>
       <c r="K279" s="2"/>
     </row>
-    <row r="280" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="280" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B280" s="2"/>
       <c r="C280" s="2"/>
       <c r="D280" s="2"/>
@@ -4945,7 +4956,7 @@
       <c r="J280" s="2"/>
       <c r="K280" s="2"/>
     </row>
-    <row r="281" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="281" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B281" s="2"/>
       <c r="C281" s="2"/>
       <c r="D281" s="2"/>
@@ -4957,7 +4968,7 @@
       <c r="J281" s="2"/>
       <c r="K281" s="2"/>
     </row>
-    <row r="282" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="282" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B282" s="2"/>
       <c r="C282" s="2"/>
       <c r="D282" s="2"/>
@@ -4969,7 +4980,7 @@
       <c r="J282" s="2"/>
       <c r="K282" s="2"/>
     </row>
-    <row r="283" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="283" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B283" s="2"/>
       <c r="C283" s="2"/>
       <c r="D283" s="2"/>
@@ -4981,7 +4992,7 @@
       <c r="J283" s="2"/>
       <c r="K283" s="2"/>
     </row>
-    <row r="284" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="284" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B284" s="2"/>
       <c r="C284" s="2"/>
       <c r="D284" s="2"/>
@@ -4993,7 +5004,7 @@
       <c r="J284" s="2"/>
       <c r="K284" s="2"/>
     </row>
-    <row r="285" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="285" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B285" s="2"/>
       <c r="C285" s="2"/>
       <c r="D285" s="2"/>
@@ -5005,7 +5016,7 @@
       <c r="J285" s="2"/>
       <c r="K285" s="2"/>
     </row>
-    <row r="286" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="286" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B286" s="2"/>
       <c r="C286" s="2"/>
       <c r="D286" s="2"/>
@@ -5017,7 +5028,7 @@
       <c r="J286" s="2"/>
       <c r="K286" s="2"/>
     </row>
-    <row r="287" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="287" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B287" s="2"/>
       <c r="C287" s="2"/>
       <c r="D287" s="2"/>
@@ -5029,7 +5040,7 @@
       <c r="J287" s="2"/>
       <c r="K287" s="2"/>
     </row>
-    <row r="288" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="288" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B288" s="2"/>
       <c r="C288" s="2"/>
       <c r="D288" s="2"/>
@@ -5041,7 +5052,7 @@
       <c r="J288" s="2"/>
       <c r="K288" s="2"/>
     </row>
-    <row r="289" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="289" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B289" s="2"/>
       <c r="C289" s="2"/>
       <c r="D289" s="2"/>
@@ -5053,7 +5064,7 @@
       <c r="J289" s="2"/>
       <c r="K289" s="2"/>
     </row>
-    <row r="290" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="290" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B290" s="2"/>
       <c r="C290" s="2"/>
       <c r="D290" s="2"/>
@@ -5065,7 +5076,7 @@
       <c r="J290" s="2"/>
       <c r="K290" s="2"/>
     </row>
-    <row r="291" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="291" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B291" s="2"/>
       <c r="C291" s="2"/>
       <c r="D291" s="2"/>
@@ -5077,7 +5088,7 @@
       <c r="J291" s="2"/>
       <c r="K291" s="2"/>
     </row>
-    <row r="292" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="292" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B292" s="2"/>
       <c r="C292" s="2"/>
       <c r="D292" s="2"/>
@@ -5089,7 +5100,7 @@
       <c r="J292" s="2"/>
       <c r="K292" s="2"/>
     </row>
-    <row r="293" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="293" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B293" s="2"/>
       <c r="C293" s="2"/>
       <c r="D293" s="2"/>
@@ -5101,7 +5112,7 @@
       <c r="J293" s="2"/>
       <c r="K293" s="2"/>
     </row>
-    <row r="294" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="294" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B294" s="2"/>
       <c r="C294" s="2"/>
       <c r="D294" s="2"/>
@@ -5113,7 +5124,7 @@
       <c r="J294" s="2"/>
       <c r="K294" s="2"/>
     </row>
-    <row r="295" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="295" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B295" s="2"/>
       <c r="C295" s="2"/>
       <c r="D295" s="2"/>
@@ -5125,7 +5136,7 @@
       <c r="J295" s="2"/>
       <c r="K295" s="2"/>
     </row>
-    <row r="296" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="296" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B296" s="2"/>
       <c r="C296" s="2"/>
       <c r="D296" s="2"/>
@@ -5137,7 +5148,7 @@
       <c r="J296" s="2"/>
       <c r="K296" s="2"/>
     </row>
-    <row r="297" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="297" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B297" s="2"/>
       <c r="C297" s="2"/>
       <c r="D297" s="2"/>
@@ -5149,7 +5160,7 @@
       <c r="J297" s="2"/>
       <c r="K297" s="2"/>
     </row>
-    <row r="298" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="298" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B298" s="2"/>
       <c r="C298" s="2"/>
       <c r="D298" s="2"/>
@@ -5161,7 +5172,7 @@
       <c r="J298" s="2"/>
       <c r="K298" s="2"/>
     </row>
-    <row r="299" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="299" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B299" s="2"/>
       <c r="C299" s="2"/>
       <c r="D299" s="2"/>
@@ -5173,7 +5184,7 @@
       <c r="J299" s="2"/>
       <c r="K299" s="2"/>
     </row>
-    <row r="300" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="300" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B300" s="2"/>
       <c r="C300" s="2"/>
       <c r="D300" s="2"/>
@@ -5185,7 +5196,7 @@
       <c r="J300" s="2"/>
       <c r="K300" s="2"/>
     </row>
-    <row r="301" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="301" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B301" s="2"/>
       <c r="C301" s="2"/>
       <c r="D301" s="2"/>
@@ -5197,7 +5208,7 @@
       <c r="J301" s="2"/>
       <c r="K301" s="2"/>
     </row>
-    <row r="302" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="302" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B302" s="2"/>
       <c r="C302" s="2"/>
       <c r="D302" s="2"/>
@@ -5209,7 +5220,7 @@
       <c r="J302" s="2"/>
       <c r="K302" s="2"/>
     </row>
-    <row r="303" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="303" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B303" s="2"/>
       <c r="C303" s="2"/>
       <c r="D303" s="2"/>
@@ -5221,7 +5232,7 @@
       <c r="J303" s="2"/>
       <c r="K303" s="2"/>
     </row>
-    <row r="304" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="304" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B304" s="2"/>
       <c r="C304" s="2"/>
       <c r="D304" s="2"/>
@@ -5233,7 +5244,7 @@
       <c r="J304" s="2"/>
       <c r="K304" s="2"/>
     </row>
-    <row r="305" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="305" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B305" s="2"/>
       <c r="C305" s="2"/>
       <c r="D305" s="2"/>
@@ -5245,7 +5256,7 @@
       <c r="J305" s="2"/>
       <c r="K305" s="2"/>
     </row>
-    <row r="306" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="306" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B306" s="2"/>
       <c r="C306" s="2"/>
       <c r="D306" s="2"/>
@@ -5257,7 +5268,7 @@
       <c r="J306" s="2"/>
       <c r="K306" s="2"/>
     </row>
-    <row r="307" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="307" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B307" s="2"/>
       <c r="C307" s="2"/>
       <c r="D307" s="2"/>
@@ -5269,7 +5280,7 @@
       <c r="J307" s="2"/>
       <c r="K307" s="2"/>
     </row>
-    <row r="308" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="308" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B308" s="2"/>
       <c r="C308" s="2"/>
       <c r="D308" s="2"/>
@@ -5281,7 +5292,7 @@
       <c r="J308" s="2"/>
       <c r="K308" s="2"/>
     </row>
-    <row r="309" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="309" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B309" s="2"/>
       <c r="C309" s="2"/>
       <c r="D309" s="2"/>
@@ -5293,7 +5304,7 @@
       <c r="J309" s="2"/>
       <c r="K309" s="2"/>
     </row>
-    <row r="310" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="310" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B310" s="2"/>
       <c r="C310" s="2"/>
       <c r="D310" s="2"/>
@@ -5305,7 +5316,7 @@
       <c r="J310" s="2"/>
       <c r="K310" s="2"/>
     </row>
-    <row r="311" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="311" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B311" s="2"/>
       <c r="C311" s="2"/>
       <c r="D311" s="2"/>
@@ -5317,7 +5328,7 @@
       <c r="J311" s="2"/>
       <c r="K311" s="2"/>
     </row>
-    <row r="312" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="312" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B312" s="2"/>
       <c r="C312" s="2"/>
       <c r="D312" s="2"/>
@@ -5329,7 +5340,7 @@
       <c r="J312" s="2"/>
       <c r="K312" s="2"/>
     </row>
-    <row r="313" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="313" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B313" s="2"/>
       <c r="C313" s="2"/>
       <c r="D313" s="2"/>
@@ -5341,7 +5352,7 @@
       <c r="J313" s="2"/>
       <c r="K313" s="2"/>
     </row>
-    <row r="314" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="314" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B314" s="2"/>
       <c r="C314" s="2"/>
       <c r="D314" s="2"/>
@@ -5353,7 +5364,7 @@
       <c r="J314" s="2"/>
       <c r="K314" s="2"/>
     </row>
-    <row r="315" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="315" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B315" s="2"/>
       <c r="C315" s="2"/>
       <c r="D315" s="2"/>
@@ -5365,7 +5376,7 @@
       <c r="J315" s="2"/>
       <c r="K315" s="2"/>
     </row>
-    <row r="316" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="316" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B316" s="2"/>
       <c r="C316" s="2"/>
       <c r="D316" s="2"/>
@@ -5377,7 +5388,7 @@
       <c r="J316" s="2"/>
       <c r="K316" s="2"/>
     </row>
-    <row r="317" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="317" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B317" s="2"/>
       <c r="C317" s="2"/>
       <c r="D317" s="2"/>
@@ -5389,7 +5400,7 @@
       <c r="J317" s="2"/>
       <c r="K317" s="2"/>
     </row>
-    <row r="318" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="318" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B318" s="2"/>
       <c r="C318" s="2"/>
       <c r="D318" s="2"/>
@@ -5401,7 +5412,7 @@
       <c r="J318" s="2"/>
       <c r="K318" s="2"/>
     </row>
-    <row r="319" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="319" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B319" s="2"/>
       <c r="C319" s="2"/>
       <c r="D319" s="2"/>
@@ -5413,7 +5424,7 @@
       <c r="J319" s="2"/>
       <c r="K319" s="2"/>
     </row>
-    <row r="320" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="320" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B320" s="2"/>
       <c r="C320" s="2"/>
       <c r="D320" s="2"/>
@@ -5425,7 +5436,7 @@
       <c r="J320" s="2"/>
       <c r="K320" s="2"/>
     </row>
-    <row r="321" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="321" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B321" s="2"/>
       <c r="C321" s="2"/>
       <c r="D321" s="2"/>
@@ -5437,7 +5448,7 @@
       <c r="J321" s="2"/>
       <c r="K321" s="2"/>
     </row>
-    <row r="322" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="322" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B322" s="2"/>
       <c r="C322" s="2"/>
       <c r="D322" s="2"/>
@@ -5449,7 +5460,7 @@
       <c r="J322" s="2"/>
       <c r="K322" s="2"/>
     </row>
-    <row r="323" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="323" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B323" s="2"/>
       <c r="C323" s="2"/>
       <c r="D323" s="2"/>
@@ -5461,7 +5472,7 @@
       <c r="J323" s="2"/>
       <c r="K323" s="2"/>
     </row>
-    <row r="324" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="324" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B324" s="2"/>
       <c r="C324" s="2"/>
       <c r="D324" s="2"/>
@@ -5473,7 +5484,7 @@
       <c r="J324" s="2"/>
       <c r="K324" s="2"/>
     </row>
-    <row r="325" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="325" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B325" s="2"/>
       <c r="C325" s="2"/>
       <c r="D325" s="2"/>
@@ -5485,7 +5496,7 @@
       <c r="J325" s="2"/>
       <c r="K325" s="2"/>
     </row>
-    <row r="326" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="326" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B326" s="2"/>
       <c r="C326" s="2"/>
       <c r="D326" s="2"/>
@@ -5497,7 +5508,7 @@
       <c r="J326" s="2"/>
       <c r="K326" s="2"/>
     </row>
-    <row r="327" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="327" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B327" s="2"/>
       <c r="C327" s="2"/>
       <c r="D327" s="2"/>
@@ -5509,7 +5520,7 @@
       <c r="J327" s="2"/>
       <c r="K327" s="2"/>
     </row>
-    <row r="328" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="328" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B328" s="2"/>
       <c r="C328" s="2"/>
       <c r="D328" s="2"/>
@@ -5521,7 +5532,7 @@
       <c r="J328" s="2"/>
       <c r="K328" s="2"/>
     </row>
-    <row r="329" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="329" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B329" s="2"/>
       <c r="C329" s="2"/>
       <c r="D329" s="2"/>
@@ -5533,7 +5544,7 @@
       <c r="J329" s="2"/>
       <c r="K329" s="2"/>
     </row>
-    <row r="330" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="330" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B330" s="2"/>
       <c r="C330" s="2"/>
       <c r="D330" s="2"/>
@@ -5545,7 +5556,7 @@
       <c r="J330" s="2"/>
       <c r="K330" s="2"/>
     </row>
-    <row r="331" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="331" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B331" s="2"/>
       <c r="C331" s="2"/>
       <c r="D331" s="2"/>
@@ -5557,7 +5568,7 @@
       <c r="J331" s="2"/>
       <c r="K331" s="2"/>
     </row>
-    <row r="332" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="332" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B332" s="2"/>
       <c r="C332" s="2"/>
       <c r="D332" s="2"/>
@@ -5569,7 +5580,7 @@
       <c r="J332" s="2"/>
       <c r="K332" s="2"/>
     </row>
-    <row r="333" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="333" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B333" s="2"/>
       <c r="C333" s="2"/>
       <c r="D333" s="2"/>
@@ -5581,7 +5592,7 @@
       <c r="J333" s="2"/>
       <c r="K333" s="2"/>
     </row>
-    <row r="334" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="334" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B334" s="2"/>
       <c r="C334" s="2"/>
       <c r="D334" s="2"/>
@@ -5593,7 +5604,7 @@
       <c r="J334" s="2"/>
       <c r="K334" s="2"/>
     </row>
-    <row r="335" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="335" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B335" s="2"/>
       <c r="C335" s="2"/>
       <c r="D335" s="2"/>
@@ -5605,7 +5616,7 @@
       <c r="J335" s="2"/>
       <c r="K335" s="2"/>
     </row>
-    <row r="336" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="336" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B336" s="2"/>
       <c r="C336" s="2"/>
       <c r="D336" s="2"/>
@@ -5617,7 +5628,7 @@
       <c r="J336" s="2"/>
       <c r="K336" s="2"/>
     </row>
-    <row r="337" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="337" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B337" s="2"/>
       <c r="C337" s="2"/>
       <c r="D337" s="2"/>
@@ -5629,7 +5640,7 @@
       <c r="J337" s="2"/>
       <c r="K337" s="2"/>
     </row>
-    <row r="338" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="338" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B338" s="2"/>
       <c r="C338" s="2"/>
       <c r="D338" s="2"/>
@@ -5641,7 +5652,7 @@
       <c r="J338" s="2"/>
       <c r="K338" s="2"/>
     </row>
-    <row r="339" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="339" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B339" s="2"/>
       <c r="C339" s="2"/>
       <c r="D339" s="2"/>
@@ -5653,7 +5664,7 @@
       <c r="J339" s="2"/>
       <c r="K339" s="2"/>
     </row>
-    <row r="340" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="340" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B340" s="2"/>
       <c r="C340" s="2"/>
       <c r="D340" s="2"/>
@@ -5665,7 +5676,7 @@
       <c r="J340" s="2"/>
       <c r="K340" s="2"/>
     </row>
-    <row r="341" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="341" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B341" s="2"/>
       <c r="C341" s="2"/>
       <c r="D341" s="2"/>
@@ -5677,7 +5688,7 @@
       <c r="J341" s="2"/>
       <c r="K341" s="2"/>
     </row>
-    <row r="342" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="342" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B342" s="2"/>
       <c r="C342" s="2"/>
       <c r="D342" s="2"/>
@@ -5689,7 +5700,7 @@
       <c r="J342" s="2"/>
       <c r="K342" s="2"/>
     </row>
-    <row r="343" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="343" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B343" s="2"/>
       <c r="C343" s="2"/>
       <c r="D343" s="2"/>
@@ -5701,7 +5712,7 @@
       <c r="J343" s="2"/>
       <c r="K343" s="2"/>
     </row>
-    <row r="344" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="344" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B344" s="2"/>
       <c r="C344" s="2"/>
       <c r="D344" s="2"/>
@@ -5713,7 +5724,7 @@
       <c r="J344" s="2"/>
       <c r="K344" s="2"/>
     </row>
-    <row r="345" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="345" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B345" s="2"/>
       <c r="C345" s="2"/>
       <c r="D345" s="2"/>
@@ -5725,7 +5736,7 @@
       <c r="J345" s="2"/>
       <c r="K345" s="2"/>
     </row>
-    <row r="346" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="346" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B346" s="2"/>
       <c r="C346" s="2"/>
       <c r="D346" s="2"/>
@@ -5737,7 +5748,7 @@
       <c r="J346" s="2"/>
       <c r="K346" s="2"/>
     </row>
-    <row r="347" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="347" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B347" s="2"/>
       <c r="C347" s="2"/>
       <c r="D347" s="2"/>
@@ -5749,7 +5760,7 @@
       <c r="J347" s="2"/>
       <c r="K347" s="2"/>
     </row>
-    <row r="348" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="348" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B348" s="2"/>
       <c r="C348" s="2"/>
       <c r="D348" s="2"/>
@@ -5761,7 +5772,7 @@
       <c r="J348" s="2"/>
       <c r="K348" s="2"/>
     </row>
-    <row r="349" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="349" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B349" s="2"/>
       <c r="C349" s="2"/>
       <c r="D349" s="2"/>
@@ -5773,7 +5784,7 @@
       <c r="J349" s="2"/>
       <c r="K349" s="2"/>
     </row>
-    <row r="350" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="350" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B350" s="2"/>
       <c r="C350" s="2"/>
       <c r="D350" s="2"/>
@@ -5785,7 +5796,7 @@
       <c r="J350" s="2"/>
       <c r="K350" s="2"/>
     </row>
-    <row r="351" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="351" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B351" s="2"/>
       <c r="C351" s="2"/>
       <c r="D351" s="2"/>
@@ -5797,7 +5808,7 @@
       <c r="J351" s="2"/>
       <c r="K351" s="2"/>
     </row>
-    <row r="352" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="352" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B352" s="2"/>
       <c r="C352" s="2"/>
       <c r="D352" s="2"/>
@@ -5809,7 +5820,7 @@
       <c r="J352" s="2"/>
       <c r="K352" s="2"/>
     </row>
-    <row r="353" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="353" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B353" s="2"/>
       <c r="C353" s="2"/>
       <c r="D353" s="2"/>
@@ -5821,7 +5832,7 @@
       <c r="J353" s="2"/>
       <c r="K353" s="2"/>
     </row>
-    <row r="354" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="354" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B354" s="2"/>
       <c r="C354" s="2"/>
       <c r="D354" s="2"/>
@@ -5833,7 +5844,7 @@
       <c r="J354" s="2"/>
       <c r="K354" s="2"/>
     </row>
-    <row r="355" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="355" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B355" s="2"/>
       <c r="C355" s="2"/>
       <c r="D355" s="2"/>
@@ -5845,7 +5856,7 @@
       <c r="J355" s="2"/>
       <c r="K355" s="2"/>
     </row>
-    <row r="356" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="356" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B356" s="2"/>
       <c r="C356" s="2"/>
       <c r="D356" s="2"/>
@@ -5857,7 +5868,7 @@
       <c r="J356" s="2"/>
       <c r="K356" s="2"/>
     </row>
-    <row r="357" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="357" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B357" s="2"/>
       <c r="C357" s="2"/>
       <c r="D357" s="2"/>
@@ -5869,7 +5880,7 @@
       <c r="J357" s="2"/>
       <c r="K357" s="2"/>
     </row>
-    <row r="358" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="358" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B358" s="2"/>
       <c r="C358" s="2"/>
       <c r="D358" s="2"/>
@@ -5881,7 +5892,7 @@
       <c r="J358" s="2"/>
       <c r="K358" s="2"/>
     </row>
-    <row r="359" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="359" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B359" s="2"/>
       <c r="C359" s="2"/>
       <c r="D359" s="2"/>
@@ -5893,7 +5904,7 @@
       <c r="J359" s="2"/>
       <c r="K359" s="2"/>
     </row>
-    <row r="360" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="360" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B360" s="2"/>
       <c r="C360" s="2"/>
       <c r="D360" s="2"/>
@@ -5905,7 +5916,7 @@
       <c r="J360" s="2"/>
       <c r="K360" s="2"/>
     </row>
-    <row r="361" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="361" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B361" s="2"/>
       <c r="C361" s="2"/>
       <c r="D361" s="2"/>
@@ -5917,7 +5928,7 @@
       <c r="J361" s="2"/>
       <c r="K361" s="2"/>
     </row>
-    <row r="362" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="362" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B362" s="2"/>
       <c r="C362" s="2"/>
       <c r="D362" s="2"/>
@@ -5929,7 +5940,7 @@
       <c r="J362" s="2"/>
       <c r="K362" s="2"/>
     </row>
-    <row r="363" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="363" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B363" s="2"/>
       <c r="C363" s="2"/>
       <c r="D363" s="2"/>
@@ -5941,7 +5952,7 @@
       <c r="J363" s="2"/>
       <c r="K363" s="2"/>
     </row>
-    <row r="364" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="364" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B364" s="2"/>
       <c r="C364" s="2"/>
       <c r="D364" s="2"/>
@@ -5953,7 +5964,7 @@
       <c r="J364" s="2"/>
       <c r="K364" s="2"/>
     </row>
-    <row r="365" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="365" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B365" s="2"/>
       <c r="C365" s="2"/>
       <c r="D365" s="2"/>
@@ -5965,7 +5976,7 @@
       <c r="J365" s="2"/>
       <c r="K365" s="2"/>
     </row>
-    <row r="366" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="366" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B366" s="2"/>
       <c r="C366" s="2"/>
       <c r="D366" s="2"/>
@@ -5977,7 +5988,7 @@
       <c r="J366" s="2"/>
       <c r="K366" s="2"/>
     </row>
-    <row r="367" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="367" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B367" s="2"/>
       <c r="C367" s="2"/>
       <c r="D367" s="2"/>
@@ -5989,7 +6000,7 @@
       <c r="J367" s="2"/>
       <c r="K367" s="2"/>
     </row>
-    <row r="368" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="368" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B368" s="2"/>
       <c r="C368" s="2"/>
       <c r="D368" s="2"/>
@@ -6001,7 +6012,7 @@
       <c r="J368" s="2"/>
       <c r="K368" s="2"/>
     </row>
-    <row r="369" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="369" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B369" s="2"/>
       <c r="C369" s="2"/>
       <c r="D369" s="2"/>
@@ -6013,7 +6024,7 @@
       <c r="J369" s="2"/>
       <c r="K369" s="2"/>
     </row>
-    <row r="370" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="370" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B370" s="2"/>
       <c r="C370" s="2"/>
       <c r="D370" s="2"/>
@@ -6025,7 +6036,7 @@
       <c r="J370" s="2"/>
       <c r="K370" s="2"/>
     </row>
-    <row r="371" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="371" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B371" s="2"/>
       <c r="C371" s="2"/>
       <c r="D371" s="2"/>
@@ -6037,7 +6048,7 @@
       <c r="J371" s="2"/>
       <c r="K371" s="2"/>
     </row>
-    <row r="372" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="372" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B372" s="2"/>
       <c r="C372" s="2"/>
       <c r="D372" s="2"/>
@@ -6049,7 +6060,7 @@
       <c r="J372" s="2"/>
       <c r="K372" s="2"/>
     </row>
-    <row r="373" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="373" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B373" s="2"/>
       <c r="C373" s="2"/>
       <c r="D373" s="2"/>
@@ -6061,7 +6072,7 @@
       <c r="J373" s="2"/>
       <c r="K373" s="2"/>
     </row>
-    <row r="374" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="374" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B374" s="2"/>
       <c r="C374" s="2"/>
       <c r="D374" s="2"/>
@@ -6073,7 +6084,7 @@
       <c r="J374" s="2"/>
       <c r="K374" s="2"/>
     </row>
-    <row r="375" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="375" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B375" s="2"/>
       <c r="C375" s="2"/>
       <c r="D375" s="2"/>
@@ -6085,7 +6096,7 @@
       <c r="J375" s="2"/>
       <c r="K375" s="2"/>
     </row>
-    <row r="376" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="376" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B376" s="2"/>
       <c r="C376" s="2"/>
       <c r="D376" s="2"/>
@@ -6097,7 +6108,7 @@
       <c r="J376" s="2"/>
       <c r="K376" s="2"/>
     </row>
-    <row r="377" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="377" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B377" s="2"/>
       <c r="C377" s="2"/>
       <c r="D377" s="2"/>
@@ -6109,7 +6120,7 @@
       <c r="J377" s="2"/>
       <c r="K377" s="2"/>
     </row>
-    <row r="378" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="378" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B378" s="2"/>
       <c r="C378" s="2"/>
       <c r="D378" s="2"/>
@@ -6121,7 +6132,7 @@
       <c r="J378" s="2"/>
       <c r="K378" s="2"/>
     </row>
-    <row r="379" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="379" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B379" s="2"/>
       <c r="C379" s="2"/>
       <c r="D379" s="2"/>
@@ -6133,7 +6144,7 @@
       <c r="J379" s="2"/>
       <c r="K379" s="2"/>
     </row>
-    <row r="380" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="380" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B380" s="2"/>
       <c r="C380" s="2"/>
       <c r="D380" s="2"/>
@@ -6145,7 +6156,7 @@
       <c r="J380" s="2"/>
       <c r="K380" s="2"/>
     </row>
-    <row r="381" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="381" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B381" s="2"/>
       <c r="C381" s="2"/>
       <c r="D381" s="2"/>
@@ -6157,7 +6168,7 @@
       <c r="J381" s="2"/>
       <c r="K381" s="2"/>
     </row>
-    <row r="382" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="382" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B382" s="2"/>
       <c r="C382" s="2"/>
       <c r="D382" s="2"/>
@@ -6169,7 +6180,7 @@
       <c r="J382" s="2"/>
       <c r="K382" s="2"/>
     </row>
-    <row r="383" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="383" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B383" s="2"/>
       <c r="C383" s="2"/>
       <c r="D383" s="2"/>
@@ -6181,7 +6192,7 @@
       <c r="J383" s="2"/>
       <c r="K383" s="2"/>
     </row>
-    <row r="384" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="384" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B384" s="2"/>
       <c r="C384" s="2"/>
       <c r="D384" s="2"/>
@@ -6193,7 +6204,7 @@
       <c r="J384" s="2"/>
       <c r="K384" s="2"/>
     </row>
-    <row r="385" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="385" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B385" s="2"/>
       <c r="C385" s="2"/>
       <c r="D385" s="2"/>
@@ -6205,7 +6216,7 @@
       <c r="J385" s="2"/>
       <c r="K385" s="2"/>
     </row>
-    <row r="386" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="386" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B386" s="2"/>
       <c r="C386" s="2"/>
       <c r="D386" s="2"/>
@@ -6217,7 +6228,7 @@
       <c r="J386" s="2"/>
       <c r="K386" s="2"/>
     </row>
-    <row r="387" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="387" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B387" s="2"/>
       <c r="C387" s="2"/>
       <c r="D387" s="2"/>
@@ -6229,7 +6240,7 @@
       <c r="J387" s="2"/>
       <c r="K387" s="2"/>
     </row>
-    <row r="388" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="388" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B388" s="2"/>
       <c r="C388" s="2"/>
       <c r="D388" s="2"/>
@@ -6241,7 +6252,7 @@
       <c r="J388" s="2"/>
       <c r="K388" s="2"/>
     </row>
-    <row r="389" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="389" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B389" s="2"/>
       <c r="C389" s="2"/>
       <c r="D389" s="2"/>
@@ -6253,7 +6264,7 @@
       <c r="J389" s="2"/>
       <c r="K389" s="2"/>
     </row>
-    <row r="390" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="390" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B390" s="2"/>
       <c r="C390" s="2"/>
       <c r="D390" s="2"/>
@@ -6265,7 +6276,7 @@
       <c r="J390" s="2"/>
       <c r="K390" s="2"/>
     </row>
-    <row r="391" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="391" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B391" s="2"/>
       <c r="C391" s="2"/>
       <c r="D391" s="2"/>
@@ -6277,7 +6288,7 @@
       <c r="J391" s="2"/>
       <c r="K391" s="2"/>
     </row>
-    <row r="392" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="392" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B392" s="2"/>
       <c r="C392" s="2"/>
       <c r="D392" s="2"/>
@@ -6289,7 +6300,7 @@
       <c r="J392" s="2"/>
       <c r="K392" s="2"/>
     </row>
-    <row r="393" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="393" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B393" s="2"/>
       <c r="C393" s="2"/>
       <c r="D393" s="2"/>
@@ -6301,7 +6312,7 @@
       <c r="J393" s="2"/>
       <c r="K393" s="2"/>
     </row>
-    <row r="394" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="394" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B394" s="2"/>
       <c r="C394" s="2"/>
       <c r="D394" s="2"/>
@@ -6313,7 +6324,7 @@
       <c r="J394" s="2"/>
       <c r="K394" s="2"/>
     </row>
-    <row r="395" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="395" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B395" s="2"/>
       <c r="C395" s="2"/>
       <c r="D395" s="2"/>
@@ -6325,7 +6336,7 @@
       <c r="J395" s="2"/>
       <c r="K395" s="2"/>
     </row>
-    <row r="396" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="396" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B396" s="2"/>
       <c r="C396" s="2"/>
       <c r="D396" s="2"/>
@@ -6337,7 +6348,7 @@
       <c r="J396" s="2"/>
       <c r="K396" s="2"/>
     </row>
-    <row r="397" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="397" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B397" s="2"/>
       <c r="C397" s="2"/>
       <c r="D397" s="2"/>
@@ -6349,7 +6360,7 @@
       <c r="J397" s="2"/>
       <c r="K397" s="2"/>
     </row>
-    <row r="398" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="398" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B398" s="2"/>
       <c r="C398" s="2"/>
       <c r="D398" s="2"/>
@@ -6361,7 +6372,7 @@
       <c r="J398" s="2"/>
       <c r="K398" s="2"/>
     </row>
-    <row r="399" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="399" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B399" s="2"/>
       <c r="C399" s="2"/>
       <c r="D399" s="2"/>
@@ -6373,7 +6384,7 @@
       <c r="J399" s="2"/>
       <c r="K399" s="2"/>
     </row>
-    <row r="400" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="400" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B400" s="2"/>
       <c r="C400" s="2"/>
       <c r="D400" s="2"/>
@@ -6385,7 +6396,7 @@
       <c r="J400" s="2"/>
       <c r="K400" s="2"/>
     </row>
-    <row r="401" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="401" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B401" s="2"/>
       <c r="C401" s="2"/>
       <c r="D401" s="2"/>
@@ -6397,7 +6408,7 @@
       <c r="J401" s="2"/>
       <c r="K401" s="2"/>
     </row>
-    <row r="402" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="402" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B402" s="2"/>
       <c r="C402" s="2"/>
       <c r="D402" s="2"/>
@@ -6409,7 +6420,7 @@
       <c r="J402" s="2"/>
       <c r="K402" s="2"/>
     </row>
-    <row r="403" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="403" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B403" s="2"/>
       <c r="C403" s="2"/>
       <c r="D403" s="2"/>
@@ -6421,7 +6432,7 @@
       <c r="J403" s="2"/>
       <c r="K403" s="2"/>
     </row>
-    <row r="404" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="404" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B404" s="2"/>
       <c r="C404" s="2"/>
       <c r="D404" s="2"/>
@@ -6433,7 +6444,7 @@
       <c r="J404" s="2"/>
       <c r="K404" s="2"/>
     </row>
-    <row r="405" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="405" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B405" s="2"/>
       <c r="C405" s="2"/>
       <c r="D405" s="2"/>
@@ -6445,7 +6456,7 @@
       <c r="J405" s="2"/>
       <c r="K405" s="2"/>
     </row>
-    <row r="406" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="406" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B406" s="2"/>
       <c r="C406" s="2"/>
       <c r="D406" s="2"/>
@@ -6457,7 +6468,7 @@
       <c r="J406" s="2"/>
       <c r="K406" s="2"/>
     </row>
-    <row r="407" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="407" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B407" s="2"/>
       <c r="C407" s="2"/>
       <c r="D407" s="2"/>
@@ -6469,7 +6480,7 @@
       <c r="J407" s="2"/>
       <c r="K407" s="2"/>
     </row>
-    <row r="408" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="408" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B408" s="2"/>
       <c r="C408" s="2"/>
       <c r="D408" s="2"/>
@@ -6481,7 +6492,7 @@
       <c r="J408" s="2"/>
       <c r="K408" s="2"/>
     </row>
-    <row r="409" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="409" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B409" s="2"/>
       <c r="C409" s="2"/>
       <c r="D409" s="2"/>
@@ -6493,7 +6504,7 @@
       <c r="J409" s="2"/>
       <c r="K409" s="2"/>
     </row>
-    <row r="410" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="410" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B410" s="2"/>
       <c r="C410" s="2"/>
       <c r="D410" s="2"/>
@@ -6505,7 +6516,7 @@
       <c r="J410" s="2"/>
       <c r="K410" s="2"/>
     </row>
-    <row r="411" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="411" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B411" s="2"/>
       <c r="C411" s="2"/>
       <c r="D411" s="2"/>
@@ -6517,7 +6528,7 @@
       <c r="J411" s="2"/>
       <c r="K411" s="2"/>
     </row>
-    <row r="412" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="412" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B412" s="2"/>
       <c r="C412" s="2"/>
       <c r="D412" s="2"/>
@@ -6529,7 +6540,7 @@
       <c r="J412" s="2"/>
       <c r="K412" s="2"/>
     </row>
-    <row r="413" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="413" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B413" s="2"/>
       <c r="C413" s="2"/>
       <c r="D413" s="2"/>
@@ -6541,7 +6552,7 @@
       <c r="J413" s="2"/>
       <c r="K413" s="2"/>
     </row>
-    <row r="414" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="414" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B414" s="2"/>
       <c r="C414" s="2"/>
       <c r="D414" s="2"/>
@@ -6553,7 +6564,7 @@
       <c r="J414" s="2"/>
       <c r="K414" s="2"/>
     </row>
-    <row r="415" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="415" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B415" s="2"/>
       <c r="C415" s="2"/>
       <c r="D415" s="2"/>
@@ -6565,7 +6576,7 @@
       <c r="J415" s="2"/>
       <c r="K415" s="2"/>
     </row>
-    <row r="416" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="416" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B416" s="2"/>
       <c r="C416" s="2"/>
       <c r="D416" s="2"/>
@@ -6577,7 +6588,7 @@
       <c r="J416" s="2"/>
       <c r="K416" s="2"/>
     </row>
-    <row r="417" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="417" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B417" s="2"/>
       <c r="C417" s="2"/>
       <c r="D417" s="2"/>
@@ -6589,7 +6600,7 @@
       <c r="J417" s="2"/>
       <c r="K417" s="2"/>
     </row>
-    <row r="418" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="418" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B418" s="2"/>
       <c r="C418" s="2"/>
       <c r="D418" s="2"/>
@@ -6601,7 +6612,7 @@
       <c r="J418" s="2"/>
       <c r="K418" s="2"/>
     </row>
-    <row r="419" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="419" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B419" s="2"/>
       <c r="C419" s="2"/>
       <c r="D419" s="2"/>
@@ -6613,7 +6624,7 @@
       <c r="J419" s="2"/>
       <c r="K419" s="2"/>
     </row>
-    <row r="420" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="420" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B420" s="2"/>
       <c r="C420" s="2"/>
       <c r="D420" s="2"/>
@@ -6625,7 +6636,7 @@
       <c r="J420" s="2"/>
       <c r="K420" s="2"/>
     </row>
-    <row r="421" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="421" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B421" s="2"/>
       <c r="C421" s="2"/>
       <c r="D421" s="2"/>
@@ -6637,7 +6648,7 @@
       <c r="J421" s="2"/>
       <c r="K421" s="2"/>
     </row>
-    <row r="422" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="422" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B422" s="2"/>
       <c r="C422" s="2"/>
       <c r="D422" s="2"/>
@@ -6649,7 +6660,7 @@
       <c r="J422" s="2"/>
       <c r="K422" s="2"/>
     </row>
-    <row r="423" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="423" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B423" s="2"/>
       <c r="C423" s="2"/>
       <c r="D423" s="2"/>
@@ -6661,7 +6672,7 @@
       <c r="J423" s="2"/>
       <c r="K423" s="2"/>
     </row>
-    <row r="424" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="424" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B424" s="2"/>
       <c r="C424" s="2"/>
       <c r="D424" s="2"/>
@@ -6673,7 +6684,7 @@
       <c r="J424" s="2"/>
       <c r="K424" s="2"/>
     </row>
-    <row r="425" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="425" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B425" s="2"/>
       <c r="C425" s="2"/>
       <c r="D425" s="2"/>
@@ -6685,7 +6696,7 @@
       <c r="J425" s="2"/>
       <c r="K425" s="2"/>
     </row>
-    <row r="426" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="426" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B426" s="2"/>
       <c r="C426" s="2"/>
       <c r="D426" s="2"/>
@@ -6697,7 +6708,7 @@
       <c r="J426" s="2"/>
       <c r="K426" s="2"/>
     </row>
-    <row r="427" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="427" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B427" s="2"/>
       <c r="C427" s="2"/>
       <c r="D427" s="2"/>
@@ -6709,7 +6720,7 @@
       <c r="J427" s="2"/>
       <c r="K427" s="2"/>
     </row>
-    <row r="428" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="428" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B428" s="2"/>
       <c r="C428" s="2"/>
       <c r="D428" s="2"/>
@@ -6721,7 +6732,7 @@
       <c r="J428" s="2"/>
       <c r="K428" s="2"/>
     </row>
-    <row r="429" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="429" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B429" s="2"/>
       <c r="C429" s="2"/>
       <c r="D429" s="2"/>
@@ -6733,7 +6744,7 @@
       <c r="J429" s="2"/>
       <c r="K429" s="2"/>
     </row>
-    <row r="430" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="430" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B430" s="2"/>
       <c r="C430" s="2"/>
       <c r="D430" s="2"/>
@@ -6745,7 +6756,7 @@
       <c r="J430" s="2"/>
       <c r="K430" s="2"/>
     </row>
-    <row r="431" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="431" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B431" s="2"/>
       <c r="C431" s="2"/>
       <c r="D431" s="2"/>
@@ -6757,7 +6768,7 @@
       <c r="J431" s="2"/>
       <c r="K431" s="2"/>
     </row>
-    <row r="432" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="432" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B432" s="2"/>
       <c r="C432" s="2"/>
       <c r="D432" s="2"/>
@@ -6769,7 +6780,7 @@
       <c r="J432" s="2"/>
       <c r="K432" s="2"/>
     </row>
-    <row r="433" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="433" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B433" s="2"/>
       <c r="C433" s="2"/>
       <c r="D433" s="2"/>
@@ -6781,7 +6792,7 @@
       <c r="J433" s="2"/>
       <c r="K433" s="2"/>
     </row>
-    <row r="434" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="434" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B434" s="2"/>
       <c r="C434" s="2"/>
       <c r="D434" s="2"/>
@@ -6793,7 +6804,7 @@
       <c r="J434" s="2"/>
       <c r="K434" s="2"/>
     </row>
-    <row r="435" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="435" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B435" s="2"/>
       <c r="C435" s="2"/>
       <c r="D435" s="2"/>
@@ -6805,7 +6816,7 @@
       <c r="J435" s="2"/>
       <c r="K435" s="2"/>
     </row>
-    <row r="436" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="436" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B436" s="2"/>
       <c r="C436" s="2"/>
       <c r="D436" s="2"/>
@@ -6817,7 +6828,7 @@
       <c r="J436" s="2"/>
       <c r="K436" s="2"/>
     </row>
-    <row r="437" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="437" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B437" s="2"/>
       <c r="C437" s="2"/>
       <c r="D437" s="2"/>
@@ -6829,7 +6840,7 @@
       <c r="J437" s="2"/>
       <c r="K437" s="2"/>
     </row>
-    <row r="438" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="438" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B438" s="2"/>
       <c r="C438" s="2"/>
       <c r="D438" s="2"/>
@@ -6841,7 +6852,7 @@
       <c r="J438" s="2"/>
       <c r="K438" s="2"/>
     </row>
-    <row r="439" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="439" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B439" s="2"/>
       <c r="C439" s="2"/>
       <c r="D439" s="2"/>
@@ -6853,7 +6864,7 @@
       <c r="J439" s="2"/>
       <c r="K439" s="2"/>
     </row>
-    <row r="440" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="440" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B440" s="2"/>
       <c r="C440" s="2"/>
       <c r="D440" s="2"/>
@@ -6865,7 +6876,7 @@
       <c r="J440" s="2"/>
       <c r="K440" s="2"/>
     </row>
-    <row r="441" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="441" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B441" s="2"/>
       <c r="C441" s="2"/>
       <c r="D441" s="2"/>
@@ -6877,7 +6888,7 @@
       <c r="J441" s="2"/>
       <c r="K441" s="2"/>
     </row>
-    <row r="442" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="442" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B442" s="2"/>
       <c r="C442" s="2"/>
       <c r="D442" s="2"/>
@@ -6889,7 +6900,7 @@
       <c r="J442" s="2"/>
       <c r="K442" s="2"/>
     </row>
-    <row r="443" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="443" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B443" s="2"/>
       <c r="C443" s="2"/>
       <c r="D443" s="2"/>
@@ -6901,7 +6912,7 @@
       <c r="J443" s="2"/>
       <c r="K443" s="2"/>
     </row>
-    <row r="444" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="444" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B444" s="2"/>
       <c r="C444" s="2"/>
       <c r="D444" s="2"/>
@@ -6913,7 +6924,7 @@
       <c r="J444" s="2"/>
       <c r="K444" s="2"/>
     </row>
-    <row r="445" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="445" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B445" s="2"/>
       <c r="C445" s="2"/>
       <c r="D445" s="2"/>
@@ -6925,7 +6936,7 @@
       <c r="J445" s="2"/>
       <c r="K445" s="2"/>
     </row>
-    <row r="446" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="446" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B446" s="2"/>
       <c r="C446" s="2"/>
       <c r="D446" s="2"/>
@@ -6937,7 +6948,7 @@
       <c r="J446" s="2"/>
       <c r="K446" s="2"/>
     </row>
-    <row r="447" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="447" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B447" s="2"/>
       <c r="C447" s="2"/>
       <c r="D447" s="2"/>
@@ -6949,7 +6960,7 @@
       <c r="J447" s="2"/>
       <c r="K447" s="2"/>
     </row>
-    <row r="448" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="448" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B448" s="2"/>
       <c r="C448" s="2"/>
       <c r="D448" s="2"/>
@@ -6961,7 +6972,7 @@
       <c r="J448" s="2"/>
       <c r="K448" s="2"/>
     </row>
-    <row r="449" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="449" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B449" s="2"/>
       <c r="C449" s="2"/>
       <c r="D449" s="2"/>
@@ -6973,7 +6984,7 @@
       <c r="J449" s="2"/>
       <c r="K449" s="2"/>
     </row>
-    <row r="450" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="450" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B450" s="2"/>
       <c r="C450" s="2"/>
       <c r="D450" s="2"/>
@@ -6985,7 +6996,7 @@
       <c r="J450" s="2"/>
       <c r="K450" s="2"/>
     </row>
-    <row r="451" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="451" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B451" s="2"/>
       <c r="C451" s="2"/>
       <c r="D451" s="2"/>
@@ -6997,7 +7008,7 @@
       <c r="J451" s="2"/>
       <c r="K451" s="2"/>
     </row>
-    <row r="452" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="452" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B452" s="2"/>
       <c r="C452" s="2"/>
       <c r="D452" s="2"/>
@@ -7009,7 +7020,7 @@
       <c r="J452" s="2"/>
       <c r="K452" s="2"/>
     </row>
-    <row r="453" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="453" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B453" s="2"/>
       <c r="C453" s="2"/>
       <c r="D453" s="2"/>
@@ -7021,7 +7032,7 @@
       <c r="J453" s="2"/>
       <c r="K453" s="2"/>
     </row>
-    <row r="454" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="454" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B454" s="2"/>
       <c r="C454" s="2"/>
       <c r="D454" s="2"/>
@@ -7033,7 +7044,7 @@
       <c r="J454" s="2"/>
       <c r="K454" s="2"/>
     </row>
-    <row r="455" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="455" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B455" s="2"/>
       <c r="C455" s="2"/>
       <c r="D455" s="2"/>
@@ -7045,7 +7056,7 @@
       <c r="J455" s="2"/>
       <c r="K455" s="2"/>
     </row>
-    <row r="456" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="456" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B456" s="2"/>
       <c r="C456" s="2"/>
       <c r="D456" s="2"/>
@@ -7057,7 +7068,7 @@
       <c r="J456" s="2"/>
       <c r="K456" s="2"/>
     </row>
-    <row r="457" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="457" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B457" s="2"/>
       <c r="C457" s="2"/>
       <c r="D457" s="2"/>
@@ -7069,7 +7080,7 @@
       <c r="J457" s="2"/>
       <c r="K457" s="2"/>
     </row>
-    <row r="458" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="458" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B458" s="2"/>
       <c r="C458" s="2"/>
       <c r="D458" s="2"/>
@@ -7081,7 +7092,7 @@
       <c r="J458" s="2"/>
       <c r="K458" s="2"/>
     </row>
-    <row r="459" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="459" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B459" s="2"/>
       <c r="C459" s="2"/>
       <c r="D459" s="2"/>
@@ -7093,7 +7104,7 @@
       <c r="J459" s="2"/>
       <c r="K459" s="2"/>
     </row>
-    <row r="460" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="460" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B460" s="2"/>
       <c r="C460" s="2"/>
       <c r="D460" s="2"/>
@@ -7105,7 +7116,7 @@
       <c r="J460" s="2"/>
       <c r="K460" s="2"/>
     </row>
-    <row r="461" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="461" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B461" s="2"/>
       <c r="C461" s="2"/>
       <c r="D461" s="2"/>
@@ -7117,7 +7128,7 @@
       <c r="J461" s="2"/>
       <c r="K461" s="2"/>
     </row>
-    <row r="462" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="462" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B462" s="2"/>
       <c r="C462" s="2"/>
       <c r="D462" s="2"/>
@@ -7129,7 +7140,7 @@
       <c r="J462" s="2"/>
       <c r="K462" s="2"/>
     </row>
-    <row r="463" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="463" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B463" s="2"/>
       <c r="C463" s="2"/>
       <c r="D463" s="2"/>
@@ -7141,7 +7152,7 @@
       <c r="J463" s="2"/>
       <c r="K463" s="2"/>
     </row>
-    <row r="464" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="464" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B464" s="2"/>
       <c r="C464" s="2"/>
       <c r="D464" s="2"/>
@@ -7153,7 +7164,7 @@
       <c r="J464" s="2"/>
       <c r="K464" s="2"/>
     </row>
-    <row r="465" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="465" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B465" s="2"/>
       <c r="C465" s="2"/>
       <c r="D465" s="2"/>
@@ -7165,7 +7176,7 @@
       <c r="J465" s="2"/>
       <c r="K465" s="2"/>
     </row>
-    <row r="466" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="466" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B466" s="2"/>
       <c r="C466" s="2"/>
       <c r="D466" s="2"/>
@@ -7177,7 +7188,7 @@
       <c r="J466" s="2"/>
       <c r="K466" s="2"/>
     </row>
-    <row r="467" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="467" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B467" s="2"/>
       <c r="C467" s="2"/>
       <c r="D467" s="2"/>
@@ -7189,7 +7200,7 @@
       <c r="J467" s="2"/>
       <c r="K467" s="2"/>
     </row>
-    <row r="468" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="468" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B468" s="2"/>
       <c r="C468" s="2"/>
       <c r="D468" s="2"/>
@@ -7201,7 +7212,7 @@
       <c r="J468" s="2"/>
       <c r="K468" s="2"/>
     </row>
-    <row r="469" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="469" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B469" s="2"/>
       <c r="C469" s="2"/>
       <c r="D469" s="2"/>
@@ -7213,7 +7224,7 @@
       <c r="J469" s="2"/>
       <c r="K469" s="2"/>
     </row>
-    <row r="470" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="470" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B470" s="2"/>
       <c r="C470" s="2"/>
       <c r="D470" s="2"/>
@@ -7225,7 +7236,7 @@
       <c r="J470" s="2"/>
       <c r="K470" s="2"/>
     </row>
-    <row r="471" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="471" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B471" s="2"/>
       <c r="C471" s="2"/>
       <c r="D471" s="2"/>
@@ -7237,7 +7248,7 @@
       <c r="J471" s="2"/>
       <c r="K471" s="2"/>
     </row>
-    <row r="472" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="472" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B472" s="2"/>
       <c r="C472" s="2"/>
       <c r="D472" s="2"/>
@@ -7249,7 +7260,7 @@
       <c r="J472" s="2"/>
       <c r="K472" s="2"/>
     </row>
-    <row r="473" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="473" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B473" s="2"/>
       <c r="C473" s="2"/>
       <c r="D473" s="2"/>
@@ -7261,7 +7272,7 @@
       <c r="J473" s="2"/>
       <c r="K473" s="2"/>
     </row>
-    <row r="474" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="474" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B474" s="2"/>
       <c r="C474" s="2"/>
       <c r="D474" s="2"/>
@@ -7273,7 +7284,7 @@
       <c r="J474" s="2"/>
       <c r="K474" s="2"/>
     </row>
-    <row r="475" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="475" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B475" s="2"/>
       <c r="C475" s="2"/>
       <c r="D475" s="2"/>
@@ -7285,7 +7296,7 @@
       <c r="J475" s="2"/>
       <c r="K475" s="2"/>
     </row>
-    <row r="476" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="476" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B476" s="2"/>
       <c r="C476" s="2"/>
       <c r="D476" s="2"/>
@@ -7297,7 +7308,7 @@
       <c r="J476" s="2"/>
       <c r="K476" s="2"/>
     </row>
-    <row r="477" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="477" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B477" s="2"/>
       <c r="C477" s="2"/>
       <c r="D477" s="2"/>
@@ -7309,7 +7320,7 @@
       <c r="J477" s="2"/>
       <c r="K477" s="2"/>
     </row>
-    <row r="478" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="478" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B478" s="2"/>
       <c r="C478" s="2"/>
       <c r="D478" s="2"/>
@@ -7321,7 +7332,7 @@
       <c r="J478" s="2"/>
       <c r="K478" s="2"/>
     </row>
-    <row r="479" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="479" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B479" s="2"/>
       <c r="C479" s="2"/>
       <c r="D479" s="2"/>
@@ -7333,7 +7344,7 @@
       <c r="J479" s="2"/>
       <c r="K479" s="2"/>
     </row>
-    <row r="480" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="480" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B480" s="2"/>
       <c r="C480" s="2"/>
       <c r="D480" s="2"/>
@@ -7345,7 +7356,7 @@
       <c r="J480" s="2"/>
       <c r="K480" s="2"/>
     </row>
-    <row r="481" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="481" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B481" s="2"/>
       <c r="C481" s="2"/>
       <c r="D481" s="2"/>
@@ -7357,7 +7368,7 @@
       <c r="J481" s="2"/>
       <c r="K481" s="2"/>
     </row>
-    <row r="482" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="482" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B482" s="2"/>
       <c r="C482" s="2"/>
       <c r="D482" s="2"/>
@@ -7369,7 +7380,7 @@
       <c r="J482" s="2"/>
       <c r="K482" s="2"/>
     </row>
-    <row r="483" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="483" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B483" s="2"/>
       <c r="C483" s="2"/>
       <c r="D483" s="2"/>
@@ -7381,7 +7392,7 @@
       <c r="J483" s="2"/>
       <c r="K483" s="2"/>
     </row>
-    <row r="484" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="484" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B484" s="2"/>
       <c r="C484" s="2"/>
       <c r="D484" s="2"/>
@@ -7393,7 +7404,7 @@
       <c r="J484" s="2"/>
       <c r="K484" s="2"/>
     </row>
-    <row r="485" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="485" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B485" s="2"/>
       <c r="C485" s="2"/>
       <c r="D485" s="2"/>
@@ -7405,7 +7416,7 @@
       <c r="J485" s="2"/>
       <c r="K485" s="2"/>
     </row>
-    <row r="486" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="486" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B486" s="2"/>
       <c r="C486" s="2"/>
       <c r="D486" s="2"/>
@@ -7417,7 +7428,7 @@
       <c r="J486" s="2"/>
       <c r="K486" s="2"/>
     </row>
-    <row r="487" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="487" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B487" s="2"/>
       <c r="C487" s="2"/>
       <c r="D487" s="2"/>
@@ -7429,7 +7440,7 @@
       <c r="J487" s="2"/>
       <c r="K487" s="2"/>
     </row>
-    <row r="488" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="488" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B488" s="2"/>
       <c r="C488" s="2"/>
       <c r="D488" s="2"/>
@@ -7441,7 +7452,7 @@
       <c r="J488" s="2"/>
       <c r="K488" s="2"/>
     </row>
-    <row r="489" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="489" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B489" s="2"/>
       <c r="C489" s="2"/>
       <c r="D489" s="2"/>
@@ -7453,7 +7464,7 @@
       <c r="J489" s="2"/>
       <c r="K489" s="2"/>
     </row>
-    <row r="490" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="490" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B490" s="2"/>
       <c r="C490" s="2"/>
       <c r="D490" s="2"/>
@@ -7465,7 +7476,7 @@
       <c r="J490" s="2"/>
       <c r="K490" s="2"/>
     </row>
-    <row r="491" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="491" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B491" s="2"/>
       <c r="C491" s="2"/>
       <c r="D491" s="2"/>
@@ -7477,7 +7488,7 @@
       <c r="J491" s="2"/>
       <c r="K491" s="2"/>
     </row>
-    <row r="492" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="492" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B492" s="2"/>
       <c r="C492" s="2"/>
       <c r="D492" s="2"/>
@@ -7489,7 +7500,7 @@
       <c r="J492" s="2"/>
       <c r="K492" s="2"/>
     </row>
-    <row r="493" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="493" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B493" s="2"/>
       <c r="C493" s="2"/>
       <c r="D493" s="2"/>
@@ -7501,7 +7512,7 @@
       <c r="J493" s="2"/>
       <c r="K493" s="2"/>
     </row>
-    <row r="494" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="494" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B494" s="2"/>
       <c r="C494" s="2"/>
       <c r="D494" s="2"/>
@@ -7513,7 +7524,7 @@
       <c r="J494" s="2"/>
       <c r="K494" s="2"/>
     </row>
-    <row r="495" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="495" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B495" s="2"/>
       <c r="C495" s="2"/>
       <c r="D495" s="2"/>
@@ -7525,7 +7536,7 @@
       <c r="J495" s="2"/>
       <c r="K495" s="2"/>
     </row>
-    <row r="496" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="496" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B496" s="2"/>
       <c r="C496" s="2"/>
       <c r="D496" s="2"/>
@@ -7537,7 +7548,7 @@
       <c r="J496" s="2"/>
       <c r="K496" s="2"/>
     </row>
-    <row r="497" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="497" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B497" s="2"/>
       <c r="C497" s="2"/>
       <c r="D497" s="2"/>
@@ -7549,7 +7560,7 @@
       <c r="J497" s="2"/>
       <c r="K497" s="2"/>
     </row>
-    <row r="498" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="498" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B498" s="2"/>
       <c r="C498" s="2"/>
       <c r="D498" s="2"/>
@@ -7561,7 +7572,7 @@
       <c r="J498" s="2"/>
       <c r="K498" s="2"/>
     </row>
-    <row r="499" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="499" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B499" s="2"/>
       <c r="C499" s="2"/>
       <c r="D499" s="2"/>
@@ -7573,7 +7584,7 @@
       <c r="J499" s="2"/>
       <c r="K499" s="2"/>
     </row>
-    <row r="500" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="500" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B500" s="2"/>
       <c r="C500" s="2"/>
       <c r="D500" s="2"/>
@@ -7585,7 +7596,7 @@
       <c r="J500" s="2"/>
       <c r="K500" s="2"/>
     </row>
-    <row r="501" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="501" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B501" s="2"/>
       <c r="C501" s="2"/>
       <c r="D501" s="2"/>
@@ -7597,7 +7608,7 @@
       <c r="J501" s="2"/>
       <c r="K501" s="2"/>
     </row>
-    <row r="502" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="502" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B502" s="2"/>
       <c r="C502" s="2"/>
       <c r="D502" s="2"/>
@@ -7609,7 +7620,7 @@
       <c r="J502" s="2"/>
       <c r="K502" s="2"/>
     </row>
-    <row r="503" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="503" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B503" s="2"/>
       <c r="C503" s="2"/>
       <c r="D503" s="2"/>
@@ -7621,7 +7632,7 @@
       <c r="J503" s="2"/>
       <c r="K503" s="2"/>
     </row>
-    <row r="504" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="504" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B504" s="2"/>
       <c r="C504" s="2"/>
       <c r="D504" s="2"/>
@@ -7633,7 +7644,7 @@
       <c r="J504" s="2"/>
       <c r="K504" s="2"/>
     </row>
-    <row r="505" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="505" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B505" s="2"/>
       <c r="C505" s="2"/>
       <c r="D505" s="2"/>
@@ -7645,7 +7656,7 @@
       <c r="J505" s="2"/>
       <c r="K505" s="2"/>
     </row>
-    <row r="506" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="506" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B506" s="2"/>
       <c r="C506" s="2"/>
       <c r="D506" s="2"/>
@@ -7657,7 +7668,7 @@
       <c r="J506" s="2"/>
       <c r="K506" s="2"/>
     </row>
-    <row r="507" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="507" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B507" s="2"/>
       <c r="C507" s="2"/>
       <c r="D507" s="2"/>
@@ -7669,7 +7680,7 @@
       <c r="J507" s="2"/>
       <c r="K507" s="2"/>
     </row>
-    <row r="508" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="508" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B508" s="2"/>
       <c r="C508" s="2"/>
       <c r="D508" s="2"/>
@@ -7681,7 +7692,7 @@
       <c r="J508" s="2"/>
       <c r="K508" s="2"/>
     </row>
-    <row r="509" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="509" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B509" s="2"/>
       <c r="C509" s="2"/>
       <c r="D509" s="2"/>
@@ -7693,7 +7704,7 @@
       <c r="J509" s="2"/>
       <c r="K509" s="2"/>
     </row>
-    <row r="510" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="510" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B510" s="2"/>
       <c r="C510" s="2"/>
       <c r="D510" s="2"/>
@@ -7705,7 +7716,7 @@
       <c r="J510" s="2"/>
       <c r="K510" s="2"/>
     </row>
-    <row r="511" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="511" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B511" s="2"/>
       <c r="C511" s="2"/>
       <c r="D511" s="2"/>
@@ -7717,7 +7728,7 @@
       <c r="J511" s="2"/>
       <c r="K511" s="2"/>
     </row>
-    <row r="512" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="512" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B512" s="2"/>
       <c r="C512" s="2"/>
       <c r="D512" s="2"/>
@@ -7729,7 +7740,7 @@
       <c r="J512" s="2"/>
       <c r="K512" s="2"/>
     </row>
-    <row r="513" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="513" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B513" s="2"/>
       <c r="C513" s="2"/>
       <c r="D513" s="2"/>
@@ -7741,7 +7752,7 @@
       <c r="J513" s="2"/>
       <c r="K513" s="2"/>
     </row>
-    <row r="514" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="514" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B514" s="2"/>
       <c r="C514" s="2"/>
       <c r="D514" s="2"/>
@@ -7753,7 +7764,7 @@
       <c r="J514" s="2"/>
       <c r="K514" s="2"/>
     </row>
-    <row r="515" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="515" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B515" s="2"/>
       <c r="C515" s="2"/>
       <c r="D515" s="2"/>
@@ -7765,7 +7776,7 @@
       <c r="J515" s="2"/>
       <c r="K515" s="2"/>
     </row>
-    <row r="516" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="516" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B516" s="2"/>
       <c r="C516" s="2"/>
       <c r="D516" s="2"/>
@@ -7777,7 +7788,7 @@
       <c r="J516" s="2"/>
       <c r="K516" s="2"/>
     </row>
-    <row r="517" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="517" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B517" s="2"/>
       <c r="C517" s="2"/>
       <c r="D517" s="2"/>
@@ -7789,7 +7800,7 @@
       <c r="J517" s="2"/>
       <c r="K517" s="2"/>
     </row>
-    <row r="518" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="518" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B518" s="2"/>
       <c r="C518" s="2"/>
       <c r="D518" s="2"/>
@@ -7801,7 +7812,7 @@
       <c r="J518" s="2"/>
       <c r="K518" s="2"/>
     </row>
-    <row r="519" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="519" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B519" s="2"/>
       <c r="C519" s="2"/>
       <c r="D519" s="2"/>
@@ -7813,7 +7824,7 @@
       <c r="J519" s="2"/>
       <c r="K519" s="2"/>
     </row>
-    <row r="520" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="520" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B520" s="2"/>
       <c r="C520" s="2"/>
       <c r="D520" s="2"/>
@@ -7825,7 +7836,7 @@
       <c r="J520" s="2"/>
       <c r="K520" s="2"/>
     </row>
-    <row r="521" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="521" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B521" s="2"/>
       <c r="C521" s="2"/>
       <c r="D521" s="2"/>
@@ -7837,7 +7848,7 @@
       <c r="J521" s="2"/>
       <c r="K521" s="2"/>
     </row>
-    <row r="522" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="522" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B522" s="2"/>
       <c r="C522" s="2"/>
       <c r="D522" s="2"/>
@@ -7849,7 +7860,7 @@
       <c r="J522" s="2"/>
       <c r="K522" s="2"/>
     </row>
-    <row r="523" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="523" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B523" s="2"/>
       <c r="C523" s="2"/>
       <c r="D523" s="2"/>
@@ -7861,7 +7872,7 @@
       <c r="J523" s="2"/>
       <c r="K523" s="2"/>
     </row>
-    <row r="524" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="524" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B524" s="2"/>
       <c r="C524" s="2"/>
       <c r="D524" s="2"/>
@@ -7873,7 +7884,7 @@
       <c r="J524" s="2"/>
       <c r="K524" s="2"/>
     </row>
-    <row r="525" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="525" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B525" s="2"/>
       <c r="C525" s="2"/>
       <c r="D525" s="2"/>
@@ -7885,7 +7896,7 @@
       <c r="J525" s="2"/>
       <c r="K525" s="2"/>
     </row>
-    <row r="526" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="526" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B526" s="2"/>
       <c r="C526" s="2"/>
       <c r="D526" s="2"/>
@@ -7897,7 +7908,7 @@
       <c r="J526" s="2"/>
       <c r="K526" s="2"/>
     </row>
-    <row r="527" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="527" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B527" s="2"/>
       <c r="C527" s="2"/>
       <c r="D527" s="2"/>
@@ -7909,7 +7920,7 @@
       <c r="J527" s="2"/>
       <c r="K527" s="2"/>
     </row>
-    <row r="528" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="528" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B528" s="2"/>
       <c r="C528" s="2"/>
       <c r="D528" s="2"/>
@@ -7921,7 +7932,7 @@
       <c r="J528" s="2"/>
       <c r="K528" s="2"/>
     </row>
-    <row r="529" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="529" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B529" s="2"/>
       <c r="C529" s="2"/>
       <c r="D529" s="2"/>
@@ -7933,7 +7944,7 @@
       <c r="J529" s="2"/>
       <c r="K529" s="2"/>
     </row>
-    <row r="530" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="530" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B530" s="2"/>
       <c r="C530" s="2"/>
       <c r="D530" s="2"/>
@@ -7945,7 +7956,7 @@
       <c r="J530" s="2"/>
       <c r="K530" s="2"/>
     </row>
-    <row r="531" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="531" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B531" s="2"/>
       <c r="C531" s="2"/>
       <c r="D531" s="2"/>
@@ -7957,7 +7968,7 @@
       <c r="J531" s="2"/>
       <c r="K531" s="2"/>
     </row>
-    <row r="532" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="532" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B532" s="2"/>
       <c r="C532" s="2"/>
       <c r="D532" s="2"/>
@@ -7969,7 +7980,7 @@
       <c r="J532" s="2"/>
       <c r="K532" s="2"/>
     </row>
-    <row r="533" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="533" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B533" s="2"/>
       <c r="C533" s="2"/>
       <c r="D533" s="2"/>
@@ -7981,7 +7992,7 @@
       <c r="J533" s="2"/>
       <c r="K533" s="2"/>
     </row>
-    <row r="534" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="534" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B534" s="2"/>
       <c r="C534" s="2"/>
       <c r="D534" s="2"/>
@@ -7993,7 +8004,7 @@
       <c r="J534" s="2"/>
       <c r="K534" s="2"/>
     </row>
-    <row r="535" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="535" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B535" s="2"/>
       <c r="C535" s="2"/>
       <c r="D535" s="2"/>
@@ -8005,7 +8016,7 @@
       <c r="J535" s="2"/>
       <c r="K535" s="2"/>
     </row>
-    <row r="536" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="536" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B536" s="2"/>
       <c r="C536" s="2"/>
       <c r="D536" s="2"/>
@@ -8017,7 +8028,7 @@
       <c r="J536" s="2"/>
       <c r="K536" s="2"/>
     </row>
-    <row r="537" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="537" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B537" s="2"/>
       <c r="C537" s="2"/>
       <c r="D537" s="2"/>
@@ -8029,7 +8040,7 @@
       <c r="J537" s="2"/>
       <c r="K537" s="2"/>
     </row>
-    <row r="538" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="538" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B538" s="2"/>
       <c r="C538" s="2"/>
       <c r="D538" s="2"/>
@@ -8041,7 +8052,7 @@
       <c r="J538" s="2"/>
       <c r="K538" s="2"/>
     </row>
-    <row r="539" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="539" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B539" s="2"/>
       <c r="C539" s="2"/>
       <c r="D539" s="2"/>
@@ -8053,7 +8064,7 @@
       <c r="J539" s="2"/>
       <c r="K539" s="2"/>
     </row>
-    <row r="540" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="540" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B540" s="2"/>
       <c r="C540" s="2"/>
       <c r="D540" s="2"/>
@@ -8065,7 +8076,7 @@
       <c r="J540" s="2"/>
       <c r="K540" s="2"/>
     </row>
-    <row r="541" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="541" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B541" s="2"/>
       <c r="C541" s="2"/>
       <c r="D541" s="2"/>
@@ -8077,7 +8088,7 @@
       <c r="J541" s="2"/>
       <c r="K541" s="2"/>
     </row>
-    <row r="542" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="542" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B542" s="2"/>
       <c r="C542" s="2"/>
       <c r="D542" s="2"/>
@@ -8089,7 +8100,7 @@
       <c r="J542" s="2"/>
       <c r="K542" s="2"/>
     </row>
-    <row r="543" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="543" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B543" s="2"/>
       <c r="C543" s="2"/>
       <c r="D543" s="2"/>
@@ -8101,7 +8112,7 @@
       <c r="J543" s="2"/>
       <c r="K543" s="2"/>
     </row>
-    <row r="544" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="544" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B544" s="2"/>
       <c r="C544" s="2"/>
       <c r="D544" s="2"/>
@@ -8113,7 +8124,7 @@
       <c r="J544" s="2"/>
       <c r="K544" s="2"/>
     </row>
-    <row r="545" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="545" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B545" s="2"/>
       <c r="C545" s="2"/>
       <c r="D545" s="2"/>
@@ -8125,7 +8136,7 @@
       <c r="J545" s="2"/>
       <c r="K545" s="2"/>
     </row>
-    <row r="546" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="546" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B546" s="2"/>
       <c r="C546" s="2"/>
       <c r="D546" s="2"/>
@@ -8137,7 +8148,7 @@
       <c r="J546" s="2"/>
       <c r="K546" s="2"/>
     </row>
-    <row r="547" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="547" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B547" s="2"/>
       <c r="C547" s="2"/>
       <c r="D547" s="2"/>
@@ -8149,7 +8160,7 @@
       <c r="J547" s="2"/>
       <c r="K547" s="2"/>
     </row>
-    <row r="548" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="548" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B548" s="2"/>
       <c r="C548" s="2"/>
       <c r="D548" s="2"/>
@@ -8161,7 +8172,7 @@
       <c r="J548" s="2"/>
       <c r="K548" s="2"/>
     </row>
-    <row r="549" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="549" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B549" s="2"/>
       <c r="C549" s="2"/>
       <c r="D549" s="2"/>
@@ -8173,7 +8184,7 @@
       <c r="J549" s="2"/>
       <c r="K549" s="2"/>
     </row>
-    <row r="550" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="550" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B550" s="2"/>
       <c r="C550" s="2"/>
       <c r="D550" s="2"/>
@@ -8185,7 +8196,7 @@
       <c r="J550" s="2"/>
       <c r="K550" s="2"/>
     </row>
-    <row r="551" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="551" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B551" s="2"/>
       <c r="C551" s="2"/>
       <c r="D551" s="2"/>
@@ -8197,7 +8208,7 @@
       <c r="J551" s="2"/>
       <c r="K551" s="2"/>
     </row>
-    <row r="552" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="552" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B552" s="2"/>
       <c r="C552" s="2"/>
       <c r="D552" s="2"/>
@@ -8209,7 +8220,7 @@
       <c r="J552" s="2"/>
       <c r="K552" s="2"/>
     </row>
-    <row r="553" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="553" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B553" s="2"/>
       <c r="C553" s="2"/>
       <c r="D553" s="2"/>
@@ -8221,7 +8232,7 @@
       <c r="J553" s="2"/>
       <c r="K553" s="2"/>
     </row>
-    <row r="554" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="554" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B554" s="2"/>
       <c r="C554" s="2"/>
       <c r="D554" s="2"/>
@@ -8233,7 +8244,7 @@
       <c r="J554" s="2"/>
       <c r="K554" s="2"/>
     </row>
-    <row r="555" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="555" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B555" s="2"/>
       <c r="C555" s="2"/>
       <c r="D555" s="2"/>
@@ -8245,7 +8256,7 @@
       <c r="J555" s="2"/>
       <c r="K555" s="2"/>
     </row>
-    <row r="556" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="556" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B556" s="2"/>
       <c r="C556" s="2"/>
       <c r="D556" s="2"/>
@@ -8257,7 +8268,7 @@
       <c r="J556" s="2"/>
       <c r="K556" s="2"/>
     </row>
-    <row r="557" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="557" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B557" s="2"/>
       <c r="C557" s="2"/>
       <c r="D557" s="2"/>
@@ -8269,7 +8280,7 @@
       <c r="J557" s="2"/>
       <c r="K557" s="2"/>
     </row>
-    <row r="558" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="558" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B558" s="2"/>
       <c r="C558" s="2"/>
       <c r="D558" s="2"/>
@@ -8281,7 +8292,7 @@
       <c r="J558" s="2"/>
       <c r="K558" s="2"/>
     </row>
-    <row r="559" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="559" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B559" s="2"/>
       <c r="C559" s="2"/>
       <c r="D559" s="2"/>
@@ -8293,7 +8304,7 @@
       <c r="J559" s="2"/>
       <c r="K559" s="2"/>
     </row>
-    <row r="560" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="560" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B560" s="2"/>
       <c r="C560" s="2"/>
       <c r="D560" s="2"/>
@@ -8305,7 +8316,7 @@
       <c r="J560" s="2"/>
       <c r="K560" s="2"/>
     </row>
-    <row r="561" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="561" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B561" s="2"/>
       <c r="C561" s="2"/>
       <c r="D561" s="2"/>
@@ -8317,7 +8328,7 @@
       <c r="J561" s="2"/>
       <c r="K561" s="2"/>
     </row>
-    <row r="562" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="562" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B562" s="2"/>
       <c r="C562" s="2"/>
       <c r="D562" s="2"/>
@@ -8329,7 +8340,7 @@
       <c r="J562" s="2"/>
       <c r="K562" s="2"/>
     </row>
-    <row r="563" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="563" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B563" s="2"/>
       <c r="C563" s="2"/>
       <c r="D563" s="2"/>
@@ -8341,7 +8352,7 @@
       <c r="J563" s="2"/>
       <c r="K563" s="2"/>
     </row>
-    <row r="564" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="564" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B564" s="2"/>
       <c r="C564" s="2"/>
       <c r="D564" s="2"/>
@@ -8353,7 +8364,7 @@
       <c r="J564" s="2"/>
       <c r="K564" s="2"/>
     </row>
-    <row r="565" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="565" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B565" s="2"/>
       <c r="C565" s="2"/>
       <c r="D565" s="2"/>
@@ -8365,7 +8376,7 @@
       <c r="J565" s="2"/>
       <c r="K565" s="2"/>
     </row>
-    <row r="566" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="566" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B566" s="2"/>
       <c r="C566" s="2"/>
       <c r="D566" s="2"/>
@@ -8377,7 +8388,7 @@
       <c r="J566" s="2"/>
       <c r="K566" s="2"/>
     </row>
-    <row r="567" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="567" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B567" s="2"/>
       <c r="C567" s="2"/>
       <c r="D567" s="2"/>
@@ -8389,7 +8400,7 @@
       <c r="J567" s="2"/>
       <c r="K567" s="2"/>
     </row>
-    <row r="568" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="568" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B568" s="2"/>
       <c r="C568" s="2"/>
       <c r="D568" s="2"/>
@@ -8401,7 +8412,7 @@
       <c r="J568" s="2"/>
       <c r="K568" s="2"/>
     </row>
-    <row r="569" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="569" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B569" s="2"/>
       <c r="C569" s="2"/>
       <c r="D569" s="2"/>
@@ -8413,7 +8424,7 @@
       <c r="J569" s="2"/>
       <c r="K569" s="2"/>
     </row>
-    <row r="570" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="570" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B570" s="2"/>
       <c r="C570" s="2"/>
       <c r="D570" s="2"/>
@@ -8425,7 +8436,7 @@
       <c r="J570" s="2"/>
       <c r="K570" s="2"/>
     </row>
-    <row r="571" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="571" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B571" s="2"/>
       <c r="C571" s="2"/>
       <c r="D571" s="2"/>
@@ -8437,7 +8448,7 @@
       <c r="J571" s="2"/>
       <c r="K571" s="2"/>
     </row>
-    <row r="572" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="572" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B572" s="2"/>
       <c r="C572" s="2"/>
       <c r="D572" s="2"/>
@@ -8449,7 +8460,7 @@
       <c r="J572" s="2"/>
       <c r="K572" s="2"/>
     </row>
-    <row r="573" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="573" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B573" s="2"/>
       <c r="C573" s="2"/>
       <c r="D573" s="2"/>
@@ -8461,7 +8472,7 @@
       <c r="J573" s="2"/>
       <c r="K573" s="2"/>
     </row>
-    <row r="574" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="574" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B574" s="2"/>
       <c r="C574" s="2"/>
       <c r="D574" s="2"/>
@@ -8473,7 +8484,7 @@
       <c r="J574" s="2"/>
       <c r="K574" s="2"/>
     </row>
-    <row r="575" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="575" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B575" s="2"/>
       <c r="C575" s="2"/>
       <c r="D575" s="2"/>
@@ -8485,7 +8496,7 @@
       <c r="J575" s="2"/>
       <c r="K575" s="2"/>
     </row>
-    <row r="576" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="576" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B576" s="2"/>
       <c r="C576" s="2"/>
       <c r="D576" s="2"/>
@@ -8497,7 +8508,7 @@
       <c r="J576" s="2"/>
       <c r="K576" s="2"/>
     </row>
-    <row r="577" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="577" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B577" s="2"/>
       <c r="C577" s="2"/>
       <c r="D577" s="2"/>
@@ -8509,7 +8520,7 @@
       <c r="J577" s="2"/>
       <c r="K577" s="2"/>
     </row>
-    <row r="578" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="578" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B578" s="2"/>
       <c r="C578" s="2"/>
       <c r="D578" s="2"/>
@@ -8521,7 +8532,7 @@
       <c r="J578" s="2"/>
       <c r="K578" s="2"/>
     </row>
-    <row r="579" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="579" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B579" s="2"/>
       <c r="C579" s="2"/>
       <c r="D579" s="2"/>
@@ -8533,7 +8544,7 @@
       <c r="J579" s="2"/>
       <c r="K579" s="2"/>
     </row>
-    <row r="580" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="580" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B580" s="2"/>
       <c r="C580" s="2"/>
       <c r="D580" s="2"/>
@@ -8545,7 +8556,7 @@
       <c r="J580" s="2"/>
       <c r="K580" s="2"/>
     </row>
-    <row r="581" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="581" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B581" s="2"/>
       <c r="C581" s="2"/>
       <c r="D581" s="2"/>
@@ -8557,7 +8568,7 @@
       <c r="J581" s="2"/>
       <c r="K581" s="2"/>
     </row>
-    <row r="582" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="582" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B582" s="2"/>
       <c r="C582" s="2"/>
       <c r="D582" s="2"/>
@@ -8569,7 +8580,7 @@
       <c r="J582" s="2"/>
       <c r="K582" s="2"/>
     </row>
-    <row r="583" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="583" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B583" s="2"/>
       <c r="C583" s="2"/>
       <c r="D583" s="2"/>
@@ -8581,7 +8592,7 @@
       <c r="J583" s="2"/>
       <c r="K583" s="2"/>
     </row>
-    <row r="584" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="584" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B584" s="2"/>
       <c r="C584" s="2"/>
       <c r="D584" s="2"/>
@@ -8593,7 +8604,7 @@
       <c r="J584" s="2"/>
       <c r="K584" s="2"/>
     </row>
-    <row r="585" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="585" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B585" s="2"/>
       <c r="C585" s="2"/>
       <c r="D585" s="2"/>
@@ -8605,7 +8616,7 @@
       <c r="J585" s="2"/>
       <c r="K585" s="2"/>
     </row>
-    <row r="586" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="586" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B586" s="2"/>
       <c r="C586" s="2"/>
       <c r="D586" s="2"/>
@@ -8617,7 +8628,7 @@
       <c r="J586" s="2"/>
       <c r="K586" s="2"/>
     </row>
-    <row r="587" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="587" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B587" s="2"/>
       <c r="C587" s="2"/>
       <c r="D587" s="2"/>
@@ -8629,7 +8640,7 @@
       <c r="J587" s="2"/>
       <c r="K587" s="2"/>
     </row>
-    <row r="588" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="588" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B588" s="2"/>
       <c r="C588" s="2"/>
       <c r="D588" s="2"/>
@@ -8641,7 +8652,7 @@
       <c r="J588" s="2"/>
       <c r="K588" s="2"/>
     </row>
-    <row r="589" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="589" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B589" s="2"/>
       <c r="C589" s="2"/>
       <c r="D589" s="2"/>
@@ -8653,7 +8664,7 @@
       <c r="J589" s="2"/>
       <c r="K589" s="2"/>
     </row>
-    <row r="590" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="590" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B590" s="2"/>
       <c r="C590" s="2"/>
       <c r="D590" s="2"/>
@@ -8665,7 +8676,7 @@
       <c r="J590" s="2"/>
       <c r="K590" s="2"/>
     </row>
-    <row r="591" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="591" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B591" s="2"/>
       <c r="C591" s="2"/>
       <c r="D591" s="2"/>
@@ -8677,7 +8688,7 @@
       <c r="J591" s="2"/>
       <c r="K591" s="2"/>
     </row>
-    <row r="592" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="592" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B592" s="2"/>
       <c r="C592" s="2"/>
       <c r="D592" s="2"/>
@@ -8689,7 +8700,7 @@
       <c r="J592" s="2"/>
       <c r="K592" s="2"/>
     </row>
-    <row r="593" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="593" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B593" s="2"/>
       <c r="C593" s="2"/>
       <c r="D593" s="2"/>
@@ -8701,7 +8712,7 @@
       <c r="J593" s="2"/>
       <c r="K593" s="2"/>
     </row>
-    <row r="594" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="594" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B594" s="2"/>
       <c r="C594" s="2"/>
       <c r="D594" s="2"/>
@@ -8713,7 +8724,7 @@
       <c r="J594" s="2"/>
       <c r="K594" s="2"/>
     </row>
-    <row r="595" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="595" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B595" s="2"/>
       <c r="C595" s="2"/>
       <c r="D595" s="2"/>
@@ -8725,7 +8736,7 @@
       <c r="J595" s="2"/>
       <c r="K595" s="2"/>
     </row>
-    <row r="596" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="596" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B596" s="2"/>
       <c r="C596" s="2"/>
       <c r="D596" s="2"/>
@@ -8737,7 +8748,7 @@
       <c r="J596" s="2"/>
       <c r="K596" s="2"/>
     </row>
-    <row r="597" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="597" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B597" s="2"/>
       <c r="C597" s="2"/>
       <c r="D597" s="2"/>
@@ -8749,7 +8760,7 @@
       <c r="J597" s="2"/>
       <c r="K597" s="2"/>
     </row>
-    <row r="598" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="598" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B598" s="2"/>
       <c r="C598" s="2"/>
       <c r="D598" s="2"/>
@@ -8761,7 +8772,7 @@
       <c r="J598" s="2"/>
       <c r="K598" s="2"/>
     </row>
-    <row r="599" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="599" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B599" s="2"/>
       <c r="C599" s="2"/>
       <c r="D599" s="2"/>
@@ -8773,7 +8784,7 @@
       <c r="J599" s="2"/>
       <c r="K599" s="2"/>
     </row>
-    <row r="600" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="600" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B600" s="2"/>
       <c r="C600" s="2"/>
       <c r="D600" s="2"/>
@@ -8785,7 +8796,7 @@
       <c r="J600" s="2"/>
       <c r="K600" s="2"/>
     </row>
-    <row r="601" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="601" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B601" s="2"/>
       <c r="C601" s="2"/>
       <c r="D601" s="2"/>
@@ -8797,7 +8808,7 @@
       <c r="J601" s="2"/>
       <c r="K601" s="2"/>
     </row>
-    <row r="602" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="602" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B602" s="2"/>
       <c r="C602" s="2"/>
       <c r="D602" s="2"/>
@@ -8809,7 +8820,7 @@
       <c r="J602" s="2"/>
       <c r="K602" s="2"/>
     </row>
-    <row r="603" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="603" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B603" s="2"/>
       <c r="C603" s="2"/>
       <c r="D603" s="2"/>
@@ -8821,7 +8832,7 @@
       <c r="J603" s="2"/>
       <c r="K603" s="2"/>
     </row>
-    <row r="604" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="604" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B604" s="2"/>
       <c r="C604" s="2"/>
       <c r="D604" s="2"/>
@@ -8833,7 +8844,7 @@
       <c r="J604" s="2"/>
       <c r="K604" s="2"/>
     </row>
-    <row r="605" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="605" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B605" s="2"/>
       <c r="C605" s="2"/>
       <c r="D605" s="2"/>
@@ -8845,7 +8856,7 @@
       <c r="J605" s="2"/>
       <c r="K605" s="2"/>
     </row>
-    <row r="606" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="606" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B606" s="2"/>
       <c r="C606" s="2"/>
       <c r="D606" s="2"/>
@@ -8857,7 +8868,7 @@
       <c r="J606" s="2"/>
       <c r="K606" s="2"/>
     </row>
-    <row r="607" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="607" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B607" s="2"/>
       <c r="C607" s="2"/>
       <c r="D607" s="2"/>
@@ -8869,7 +8880,7 @@
       <c r="J607" s="2"/>
       <c r="K607" s="2"/>
     </row>
-    <row r="608" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="608" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B608" s="2"/>
       <c r="C608" s="2"/>
       <c r="D608" s="2"/>
@@ -8881,7 +8892,7 @@
       <c r="J608" s="2"/>
       <c r="K608" s="2"/>
     </row>
-    <row r="609" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="609" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B609" s="2"/>
       <c r="C609" s="2"/>
       <c r="D609" s="2"/>
@@ -8893,7 +8904,7 @@
       <c r="J609" s="2"/>
       <c r="K609" s="2"/>
     </row>
-    <row r="610" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="610" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B610" s="2"/>
       <c r="C610" s="2"/>
       <c r="D610" s="2"/>
@@ -8905,7 +8916,7 @@
       <c r="J610" s="2"/>
       <c r="K610" s="2"/>
     </row>
-    <row r="611" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="611" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B611" s="2"/>
       <c r="C611" s="2"/>
       <c r="D611" s="2"/>
@@ -8917,7 +8928,7 @@
       <c r="J611" s="2"/>
       <c r="K611" s="2"/>
     </row>
-    <row r="612" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="612" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B612" s="2"/>
       <c r="C612" s="2"/>
       <c r="D612" s="2"/>
@@ -8929,7 +8940,7 @@
       <c r="J612" s="2"/>
       <c r="K612" s="2"/>
     </row>
-    <row r="613" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="613" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B613" s="2"/>
       <c r="C613" s="2"/>
       <c r="D613" s="2"/>
@@ -8941,7 +8952,7 @@
       <c r="J613" s="2"/>
       <c r="K613" s="2"/>
     </row>
-    <row r="614" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="614" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B614" s="2"/>
       <c r="C614" s="2"/>
       <c r="D614" s="2"/>
@@ -8953,7 +8964,7 @@
       <c r="J614" s="2"/>
       <c r="K614" s="2"/>
     </row>
-    <row r="615" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="615" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B615" s="2"/>
       <c r="C615" s="2"/>
       <c r="D615" s="2"/>
@@ -8965,7 +8976,7 @@
       <c r="J615" s="2"/>
       <c r="K615" s="2"/>
     </row>
-    <row r="616" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="616" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B616" s="2"/>
       <c r="C616" s="2"/>
       <c r="D616" s="2"/>
@@ -8977,7 +8988,7 @@
       <c r="J616" s="2"/>
       <c r="K616" s="2"/>
     </row>
-    <row r="617" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="617" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B617" s="2"/>
       <c r="C617" s="2"/>
       <c r="D617" s="2"/>
@@ -8989,7 +9000,7 @@
       <c r="J617" s="2"/>
       <c r="K617" s="2"/>
     </row>
-    <row r="618" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="618" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B618" s="2"/>
       <c r="C618" s="2"/>
       <c r="D618" s="2"/>
@@ -9001,7 +9012,7 @@
       <c r="J618" s="2"/>
       <c r="K618" s="2"/>
     </row>
-    <row r="619" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="619" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B619" s="2"/>
       <c r="C619" s="2"/>
       <c r="D619" s="2"/>
@@ -9013,7 +9024,7 @@
       <c r="J619" s="2"/>
       <c r="K619" s="2"/>
     </row>
-    <row r="620" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="620" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B620" s="2"/>
       <c r="C620" s="2"/>
       <c r="D620" s="2"/>
@@ -9025,7 +9036,7 @@
       <c r="J620" s="2"/>
       <c r="K620" s="2"/>
     </row>
-    <row r="621" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="621" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B621" s="2"/>
       <c r="C621" s="2"/>
       <c r="D621" s="2"/>
@@ -9037,7 +9048,7 @@
       <c r="J621" s="2"/>
       <c r="K621" s="2"/>
     </row>
-    <row r="622" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="622" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B622" s="2"/>
       <c r="C622" s="2"/>
       <c r="D622" s="2"/>
@@ -9049,7 +9060,7 @@
       <c r="J622" s="2"/>
       <c r="K622" s="2"/>
     </row>
-    <row r="623" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="623" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B623" s="2"/>
       <c r="C623" s="2"/>
       <c r="D623" s="2"/>
@@ -9061,7 +9072,7 @@
       <c r="J623" s="2"/>
       <c r="K623" s="2"/>
     </row>
-    <row r="624" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="624" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B624" s="2"/>
       <c r="C624" s="2"/>
       <c r="D624" s="2"/>
@@ -9073,7 +9084,7 @@
       <c r="J624" s="2"/>
       <c r="K624" s="2"/>
     </row>
-    <row r="625" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="625" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B625" s="2"/>
       <c r="C625" s="2"/>
       <c r="D625" s="2"/>
@@ -9085,7 +9096,7 @@
       <c r="J625" s="2"/>
       <c r="K625" s="2"/>
     </row>
-    <row r="626" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="626" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B626" s="2"/>
       <c r="C626" s="2"/>
       <c r="D626" s="2"/>
@@ -9097,7 +9108,7 @@
       <c r="J626" s="2"/>
       <c r="K626" s="2"/>
     </row>
-    <row r="627" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="627" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B627" s="2"/>
       <c r="C627" s="2"/>
       <c r="D627" s="2"/>
@@ -9109,7 +9120,7 @@
       <c r="J627" s="2"/>
       <c r="K627" s="2"/>
     </row>
-    <row r="628" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="628" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B628" s="2"/>
       <c r="C628" s="2"/>
       <c r="D628" s="2"/>
@@ -9121,7 +9132,7 @@
       <c r="J628" s="2"/>
       <c r="K628" s="2"/>
     </row>
-    <row r="629" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="629" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B629" s="2"/>
       <c r="C629" s="2"/>
       <c r="D629" s="2"/>
@@ -9133,7 +9144,7 @@
       <c r="J629" s="2"/>
       <c r="K629" s="2"/>
     </row>
-    <row r="630" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="630" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B630" s="2"/>
       <c r="C630" s="2"/>
       <c r="D630" s="2"/>
@@ -9145,7 +9156,7 @@
       <c r="J630" s="2"/>
       <c r="K630" s="2"/>
     </row>
-    <row r="631" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="631" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B631" s="2"/>
       <c r="C631" s="2"/>
       <c r="D631" s="2"/>
@@ -9157,7 +9168,7 @@
       <c r="J631" s="2"/>
       <c r="K631" s="2"/>
     </row>
-    <row r="632" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="632" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B632" s="2"/>
       <c r="C632" s="2"/>
       <c r="D632" s="2"/>
@@ -9169,7 +9180,7 @@
       <c r="J632" s="2"/>
       <c r="K632" s="2"/>
     </row>
-    <row r="633" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="633" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B633" s="2"/>
       <c r="C633" s="2"/>
       <c r="D633" s="2"/>
@@ -9181,7 +9192,7 @@
       <c r="J633" s="2"/>
       <c r="K633" s="2"/>
     </row>
-    <row r="634" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="634" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B634" s="2"/>
       <c r="C634" s="2"/>
       <c r="D634" s="2"/>
@@ -9193,7 +9204,7 @@
       <c r="J634" s="2"/>
       <c r="K634" s="2"/>
     </row>
-    <row r="635" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="635" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B635" s="2"/>
       <c r="C635" s="2"/>
       <c r="D635" s="2"/>
@@ -9205,7 +9216,7 @@
       <c r="J635" s="2"/>
       <c r="K635" s="2"/>
     </row>
-    <row r="636" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="636" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B636" s="2"/>
       <c r="C636" s="2"/>
       <c r="D636" s="2"/>
@@ -9217,7 +9228,7 @@
       <c r="J636" s="2"/>
       <c r="K636" s="2"/>
     </row>
-    <row r="637" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="637" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B637" s="2"/>
       <c r="C637" s="2"/>
       <c r="D637" s="2"/>
@@ -9229,7 +9240,7 @@
       <c r="J637" s="2"/>
       <c r="K637" s="2"/>
     </row>
-    <row r="638" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="638" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B638" s="2"/>
       <c r="C638" s="2"/>
       <c r="D638" s="2"/>
@@ -9241,7 +9252,7 @@
       <c r="J638" s="2"/>
       <c r="K638" s="2"/>
     </row>
-    <row r="639" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="639" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B639" s="2"/>
       <c r="C639" s="2"/>
       <c r="D639" s="2"/>
@@ -9253,7 +9264,7 @@
       <c r="J639" s="2"/>
       <c r="K639" s="2"/>
     </row>
-    <row r="640" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="640" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B640" s="2"/>
       <c r="C640" s="2"/>
       <c r="D640" s="2"/>
@@ -9265,7 +9276,7 @@
       <c r="J640" s="2"/>
       <c r="K640" s="2"/>
     </row>
-    <row r="641" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="641" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B641" s="2"/>
       <c r="C641" s="2"/>
       <c r="D641" s="2"/>
@@ -9277,7 +9288,7 @@
       <c r="J641" s="2"/>
       <c r="K641" s="2"/>
     </row>
-    <row r="642" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="642" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B642" s="2"/>
       <c r="C642" s="2"/>
       <c r="D642" s="2"/>
@@ -9289,7 +9300,7 @@
       <c r="J642" s="2"/>
       <c r="K642" s="2"/>
     </row>
-    <row r="643" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="643" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B643" s="2"/>
       <c r="C643" s="2"/>
       <c r="D643" s="2"/>
@@ -9301,7 +9312,7 @@
       <c r="J643" s="2"/>
       <c r="K643" s="2"/>
     </row>
-    <row r="644" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="644" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B644" s="2"/>
       <c r="C644" s="2"/>
       <c r="D644" s="2"/>
@@ -9313,7 +9324,7 @@
       <c r="J644" s="2"/>
       <c r="K644" s="2"/>
     </row>
-    <row r="645" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="645" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B645" s="2"/>
       <c r="C645" s="2"/>
       <c r="D645" s="2"/>
@@ -9325,7 +9336,7 @@
       <c r="J645" s="2"/>
       <c r="K645" s="2"/>
     </row>
-    <row r="646" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="646" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B646" s="2"/>
       <c r="C646" s="2"/>
       <c r="D646" s="2"/>
@@ -9337,7 +9348,7 @@
       <c r="J646" s="2"/>
       <c r="K646" s="2"/>
     </row>
-    <row r="647" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="647" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B647" s="2"/>
       <c r="C647" s="2"/>
       <c r="D647" s="2"/>
@@ -9349,7 +9360,7 @@
       <c r="J647" s="2"/>
       <c r="K647" s="2"/>
     </row>
-    <row r="648" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="648" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B648" s="2"/>
       <c r="C648" s="2"/>
       <c r="D648" s="2"/>
@@ -9361,7 +9372,7 @@
       <c r="J648" s="2"/>
       <c r="K648" s="2"/>
     </row>
-    <row r="649" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="649" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B649" s="2"/>
       <c r="C649" s="2"/>
       <c r="D649" s="2"/>
@@ -9373,7 +9384,7 @@
       <c r="J649" s="2"/>
       <c r="K649" s="2"/>
     </row>
-    <row r="650" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="650" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B650" s="2"/>
       <c r="C650" s="2"/>
       <c r="D650" s="2"/>
@@ -9385,7 +9396,7 @@
       <c r="J650" s="2"/>
       <c r="K650" s="2"/>
     </row>
-    <row r="651" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="651" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B651" s="2"/>
       <c r="C651" s="2"/>
       <c r="D651" s="2"/>
@@ -9397,7 +9408,7 @@
       <c r="J651" s="2"/>
       <c r="K651" s="2"/>
     </row>
-    <row r="652" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="652" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B652" s="2"/>
       <c r="C652" s="2"/>
       <c r="D652" s="2"/>
@@ -9409,7 +9420,7 @@
       <c r="J652" s="2"/>
       <c r="K652" s="2"/>
     </row>
-    <row r="653" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="653" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B653" s="2"/>
       <c r="C653" s="2"/>
       <c r="D653" s="2"/>
@@ -9421,7 +9432,7 @@
       <c r="J653" s="2"/>
       <c r="K653" s="2"/>
     </row>
-    <row r="654" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="654" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B654" s="2"/>
       <c r="C654" s="2"/>
       <c r="D654" s="2"/>
@@ -9433,7 +9444,7 @@
       <c r="J654" s="2"/>
       <c r="K654" s="2"/>
     </row>
-    <row r="655" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="655" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B655" s="2"/>
       <c r="C655" s="2"/>
       <c r="D655" s="2"/>
@@ -9445,7 +9456,7 @@
       <c r="J655" s="2"/>
       <c r="K655" s="2"/>
     </row>
-    <row r="656" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="656" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B656" s="2"/>
       <c r="C656" s="2"/>
       <c r="D656" s="2"/>
@@ -9457,7 +9468,7 @@
       <c r="J656" s="2"/>
       <c r="K656" s="2"/>
     </row>
-    <row r="657" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="657" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B657" s="2"/>
       <c r="C657" s="2"/>
       <c r="D657" s="2"/>
@@ -9469,7 +9480,7 @@
       <c r="J657" s="2"/>
       <c r="K657" s="2"/>
     </row>
-    <row r="658" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="658" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B658" s="2"/>
       <c r="C658" s="2"/>
       <c r="D658" s="2"/>
@@ -9481,7 +9492,7 @@
       <c r="J658" s="2"/>
       <c r="K658" s="2"/>
     </row>
-    <row r="659" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="659" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B659" s="2"/>
       <c r="C659" s="2"/>
       <c r="D659" s="2"/>
@@ -9493,7 +9504,7 @@
       <c r="J659" s="2"/>
       <c r="K659" s="2"/>
     </row>
-    <row r="660" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="660" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B660" s="2"/>
       <c r="C660" s="2"/>
       <c r="D660" s="2"/>
@@ -9505,7 +9516,7 @@
       <c r="J660" s="2"/>
       <c r="K660" s="2"/>
     </row>
-    <row r="661" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="661" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B661" s="2"/>
       <c r="C661" s="2"/>
       <c r="D661" s="2"/>
@@ -9517,7 +9528,7 @@
       <c r="J661" s="2"/>
       <c r="K661" s="2"/>
     </row>
-    <row r="662" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="662" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B662" s="2"/>
       <c r="C662" s="2"/>
       <c r="D662" s="2"/>
@@ -9529,7 +9540,7 @@
       <c r="J662" s="2"/>
       <c r="K662" s="2"/>
     </row>
-    <row r="663" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="663" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B663" s="2"/>
       <c r="C663" s="2"/>
       <c r="D663" s="2"/>
@@ -9541,7 +9552,7 @@
       <c r="J663" s="2"/>
       <c r="K663" s="2"/>
     </row>
-    <row r="664" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="664" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B664" s="2"/>
       <c r="C664" s="2"/>
       <c r="D664" s="2"/>
@@ -9553,7 +9564,7 @@
       <c r="J664" s="2"/>
       <c r="K664" s="2"/>
     </row>
-    <row r="665" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="665" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B665" s="2"/>
       <c r="C665" s="2"/>
       <c r="D665" s="2"/>
@@ -9565,7 +9576,7 @@
       <c r="J665" s="2"/>
       <c r="K665" s="2"/>
     </row>
-    <row r="666" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="666" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B666" s="2"/>
       <c r="C666" s="2"/>
       <c r="D666" s="2"/>
@@ -9577,7 +9588,7 @@
       <c r="J666" s="2"/>
       <c r="K666" s="2"/>
     </row>
-    <row r="667" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="667" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B667" s="2"/>
       <c r="C667" s="2"/>
       <c r="D667" s="2"/>
@@ -9589,7 +9600,7 @@
       <c r="J667" s="2"/>
       <c r="K667" s="2"/>
     </row>
-    <row r="668" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="668" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B668" s="2"/>
       <c r="C668" s="2"/>
       <c r="D668" s="2"/>
@@ -9601,7 +9612,7 @@
       <c r="J668" s="2"/>
       <c r="K668" s="2"/>
     </row>
-    <row r="669" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="669" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B669" s="2"/>
       <c r="C669" s="2"/>
       <c r="D669" s="2"/>
@@ -9613,7 +9624,7 @@
       <c r="J669" s="2"/>
       <c r="K669" s="2"/>
     </row>
-    <row r="670" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="670" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B670" s="2"/>
       <c r="C670" s="2"/>
       <c r="D670" s="2"/>
@@ -9625,7 +9636,7 @@
       <c r="J670" s="2"/>
       <c r="K670" s="2"/>
     </row>
-    <row r="671" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="671" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B671" s="2"/>
       <c r="C671" s="2"/>
       <c r="D671" s="2"/>
@@ -9637,7 +9648,7 @@
       <c r="J671" s="2"/>
       <c r="K671" s="2"/>
     </row>
-    <row r="672" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="672" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B672" s="2"/>
       <c r="C672" s="2"/>
       <c r="D672" s="2"/>
@@ -9649,7 +9660,7 @@
       <c r="J672" s="2"/>
       <c r="K672" s="2"/>
     </row>
-    <row r="673" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="673" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B673" s="2"/>
       <c r="C673" s="2"/>
       <c r="D673" s="2"/>
@@ -9661,7 +9672,7 @@
       <c r="J673" s="2"/>
       <c r="K673" s="2"/>
     </row>
-    <row r="674" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="674" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B674" s="2"/>
       <c r="C674" s="2"/>
       <c r="D674" s="2"/>
@@ -9673,7 +9684,7 @@
       <c r="J674" s="2"/>
       <c r="K674" s="2"/>
     </row>
-    <row r="675" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="675" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B675" s="2"/>
       <c r="C675" s="2"/>
       <c r="D675" s="2"/>
@@ -9685,7 +9696,7 @@
       <c r="J675" s="2"/>
       <c r="K675" s="2"/>
     </row>
-    <row r="676" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="676" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B676" s="2"/>
       <c r="C676" s="2"/>
       <c r="D676" s="2"/>
@@ -9697,7 +9708,7 @@
       <c r="J676" s="2"/>
       <c r="K676" s="2"/>
     </row>
-    <row r="677" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="677" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B677" s="2"/>
       <c r="C677" s="2"/>
       <c r="D677" s="2"/>
@@ -9709,7 +9720,7 @@
       <c r="J677" s="2"/>
       <c r="K677" s="2"/>
     </row>
-    <row r="678" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="678" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B678" s="2"/>
       <c r="C678" s="2"/>
       <c r="D678" s="2"/>
@@ -9721,7 +9732,7 @@
       <c r="J678" s="2"/>
       <c r="K678" s="2"/>
     </row>
-    <row r="679" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="679" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B679" s="2"/>
       <c r="C679" s="2"/>
       <c r="D679" s="2"/>
@@ -9733,7 +9744,7 @@
       <c r="J679" s="2"/>
       <c r="K679" s="2"/>
     </row>
-    <row r="680" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="680" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B680" s="2"/>
       <c r="C680" s="2"/>
       <c r="D680" s="2"/>
@@ -9745,7 +9756,7 @@
       <c r="J680" s="2"/>
       <c r="K680" s="2"/>
     </row>
-    <row r="681" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="681" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B681" s="2"/>
       <c r="C681" s="2"/>
       <c r="D681" s="2"/>
@@ -9757,7 +9768,7 @@
       <c r="J681" s="2"/>
       <c r="K681" s="2"/>
     </row>
-    <row r="682" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="682" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B682" s="2"/>
       <c r="C682" s="2"/>
       <c r="D682" s="2"/>
@@ -9769,7 +9780,7 @@
       <c r="J682" s="2"/>
       <c r="K682" s="2"/>
     </row>
-    <row r="683" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="683" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B683" s="2"/>
       <c r="C683" s="2"/>
       <c r="D683" s="2"/>
@@ -9781,7 +9792,7 @@
       <c r="J683" s="2"/>
       <c r="K683" s="2"/>
     </row>
-    <row r="684" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="684" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B684" s="2"/>
       <c r="C684" s="2"/>
       <c r="D684" s="2"/>
@@ -9793,7 +9804,7 @@
       <c r="J684" s="2"/>
       <c r="K684" s="2"/>
     </row>
-    <row r="685" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="685" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B685" s="2"/>
       <c r="C685" s="2"/>
       <c r="D685" s="2"/>
@@ -9805,7 +9816,7 @@
       <c r="J685" s="2"/>
       <c r="K685" s="2"/>
     </row>
-    <row r="686" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="686" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B686" s="2"/>
       <c r="C686" s="2"/>
       <c r="D686" s="2"/>
@@ -9817,7 +9828,7 @@
       <c r="J686" s="2"/>
       <c r="K686" s="2"/>
     </row>
-    <row r="687" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="687" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B687" s="2"/>
       <c r="C687" s="2"/>
       <c r="D687" s="2"/>
@@ -9829,7 +9840,7 @@
       <c r="J687" s="2"/>
       <c r="K687" s="2"/>
     </row>
-    <row r="688" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="688" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B688" s="2"/>
       <c r="C688" s="2"/>
       <c r="D688" s="2"/>
@@ -9841,7 +9852,7 @@
       <c r="J688" s="2"/>
       <c r="K688" s="2"/>
     </row>
-    <row r="689" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="689" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B689" s="2"/>
       <c r="C689" s="2"/>
       <c r="D689" s="2"/>
@@ -9853,7 +9864,7 @@
       <c r="J689" s="2"/>
       <c r="K689" s="2"/>
     </row>
-    <row r="690" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="690" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B690" s="2"/>
       <c r="C690" s="2"/>
       <c r="D690" s="2"/>
@@ -9865,7 +9876,7 @@
       <c r="J690" s="2"/>
       <c r="K690" s="2"/>
     </row>
-    <row r="691" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="691" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B691" s="2"/>
       <c r="C691" s="2"/>
       <c r="D691" s="2"/>
@@ -9877,7 +9888,7 @@
       <c r="J691" s="2"/>
       <c r="K691" s="2"/>
     </row>
-    <row r="692" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="692" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B692" s="2"/>
       <c r="C692" s="2"/>
       <c r="D692" s="2"/>
@@ -9889,7 +9900,7 @@
       <c r="J692" s="2"/>
       <c r="K692" s="2"/>
     </row>
-    <row r="693" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="693" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B693" s="2"/>
       <c r="C693" s="2"/>
       <c r="D693" s="2"/>
@@ -9901,7 +9912,7 @@
       <c r="J693" s="2"/>
       <c r="K693" s="2"/>
     </row>
-    <row r="694" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="694" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B694" s="2"/>
       <c r="C694" s="2"/>
       <c r="D694" s="2"/>
@@ -9913,7 +9924,7 @@
       <c r="J694" s="2"/>
       <c r="K694" s="2"/>
     </row>
-    <row r="695" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="695" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B695" s="2"/>
       <c r="C695" s="2"/>
       <c r="D695" s="2"/>
@@ -9925,7 +9936,7 @@
       <c r="J695" s="2"/>
       <c r="K695" s="2"/>
     </row>
-    <row r="696" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="696" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B696" s="2"/>
       <c r="C696" s="2"/>
       <c r="D696" s="2"/>
@@ -9937,7 +9948,7 @@
       <c r="J696" s="2"/>
       <c r="K696" s="2"/>
     </row>
-    <row r="697" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="697" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B697" s="2"/>
       <c r="C697" s="2"/>
       <c r="D697" s="2"/>
@@ -9949,7 +9960,7 @@
       <c r="J697" s="2"/>
       <c r="K697" s="2"/>
     </row>
-    <row r="698" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="698" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B698" s="2"/>
       <c r="C698" s="2"/>
       <c r="D698" s="2"/>
@@ -9961,7 +9972,7 @@
       <c r="J698" s="2"/>
       <c r="K698" s="2"/>
     </row>
-    <row r="699" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="699" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B699" s="2"/>
       <c r="C699" s="2"/>
       <c r="D699" s="2"/>
@@ -9973,7 +9984,7 @@
       <c r="J699" s="2"/>
       <c r="K699" s="2"/>
     </row>
-    <row r="700" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="700" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B700" s="2"/>
       <c r="C700" s="2"/>
       <c r="D700" s="2"/>
@@ -9985,7 +9996,7 @@
       <c r="J700" s="2"/>
       <c r="K700" s="2"/>
     </row>
-    <row r="701" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="701" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B701" s="2"/>
       <c r="C701" s="2"/>
       <c r="D701" s="2"/>
@@ -9997,7 +10008,7 @@
       <c r="J701" s="2"/>
       <c r="K701" s="2"/>
     </row>
-    <row r="702" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="702" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B702" s="2"/>
       <c r="C702" s="2"/>
       <c r="D702" s="2"/>
@@ -10009,7 +10020,7 @@
       <c r="J702" s="2"/>
       <c r="K702" s="2"/>
     </row>
-    <row r="703" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="703" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B703" s="2"/>
       <c r="C703" s="2"/>
       <c r="D703" s="2"/>
@@ -10021,7 +10032,7 @@
       <c r="J703" s="2"/>
       <c r="K703" s="2"/>
     </row>
-    <row r="704" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="704" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B704" s="2"/>
       <c r="C704" s="2"/>
       <c r="D704" s="2"/>
@@ -10033,7 +10044,7 @@
       <c r="J704" s="2"/>
       <c r="K704" s="2"/>
     </row>
-    <row r="705" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="705" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B705" s="2"/>
       <c r="C705" s="2"/>
       <c r="D705" s="2"/>
@@ -10045,7 +10056,7 @@
       <c r="J705" s="2"/>
       <c r="K705" s="2"/>
     </row>
-    <row r="706" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="706" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B706" s="2"/>
       <c r="C706" s="2"/>
       <c r="D706" s="2"/>
@@ -10057,7 +10068,7 @@
       <c r="J706" s="2"/>
       <c r="K706" s="2"/>
     </row>
-    <row r="707" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="707" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B707" s="2"/>
       <c r="C707" s="2"/>
       <c r="D707" s="2"/>
@@ -10069,7 +10080,7 @@
       <c r="J707" s="2"/>
       <c r="K707" s="2"/>
     </row>
-    <row r="708" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="708" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B708" s="2"/>
       <c r="C708" s="2"/>
       <c r="D708" s="2"/>
@@ -10081,7 +10092,7 @@
       <c r="J708" s="2"/>
       <c r="K708" s="2"/>
     </row>
-    <row r="709" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="709" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B709" s="2"/>
       <c r="C709" s="2"/>
       <c r="D709" s="2"/>
@@ -10093,7 +10104,7 @@
       <c r="J709" s="2"/>
       <c r="K709" s="2"/>
     </row>
-    <row r="710" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="710" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B710" s="2"/>
       <c r="C710" s="2"/>
       <c r="D710" s="2"/>
@@ -10105,7 +10116,7 @@
       <c r="J710" s="2"/>
       <c r="K710" s="2"/>
     </row>
-    <row r="711" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="711" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B711" s="2"/>
       <c r="C711" s="2"/>
       <c r="D711" s="2"/>
@@ -10117,7 +10128,7 @@
       <c r="J711" s="2"/>
       <c r="K711" s="2"/>
     </row>
-    <row r="712" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="712" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B712" s="2"/>
       <c r="C712" s="2"/>
       <c r="D712" s="2"/>
@@ -10129,7 +10140,7 @@
       <c r="J712" s="2"/>
       <c r="K712" s="2"/>
     </row>
-    <row r="713" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="713" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B713" s="2"/>
       <c r="C713" s="2"/>
       <c r="D713" s="2"/>
@@ -10141,7 +10152,7 @@
       <c r="J713" s="2"/>
       <c r="K713" s="2"/>
     </row>
-    <row r="714" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="714" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B714" s="2"/>
       <c r="C714" s="2"/>
       <c r="D714" s="2"/>
@@ -10153,7 +10164,7 @@
       <c r="J714" s="2"/>
       <c r="K714" s="2"/>
     </row>
-    <row r="715" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="715" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B715" s="2"/>
       <c r="C715" s="2"/>
       <c r="D715" s="2"/>
@@ -10165,7 +10176,7 @@
       <c r="J715" s="2"/>
       <c r="K715" s="2"/>
     </row>
-    <row r="716" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="716" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B716" s="2"/>
       <c r="C716" s="2"/>
       <c r="D716" s="2"/>
@@ -10177,7 +10188,7 @@
       <c r="J716" s="2"/>
       <c r="K716" s="2"/>
     </row>
-    <row r="717" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="717" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B717" s="2"/>
       <c r="C717" s="2"/>
       <c r="D717" s="2"/>
@@ -10189,7 +10200,7 @@
       <c r="J717" s="2"/>
       <c r="K717" s="2"/>
     </row>
-    <row r="718" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="718" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B718" s="2"/>
       <c r="C718" s="2"/>
       <c r="D718" s="2"/>
@@ -10201,7 +10212,7 @@
       <c r="J718" s="2"/>
       <c r="K718" s="2"/>
     </row>
-    <row r="719" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="719" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B719" s="2"/>
       <c r="C719" s="2"/>
       <c r="D719" s="2"/>
@@ -10213,7 +10224,7 @@
       <c r="J719" s="2"/>
       <c r="K719" s="2"/>
     </row>
-    <row r="720" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="720" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B720" s="2"/>
       <c r="C720" s="2"/>
       <c r="D720" s="2"/>
@@ -10225,7 +10236,7 @@
       <c r="J720" s="2"/>
       <c r="K720" s="2"/>
     </row>
-    <row r="721" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="721" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B721" s="2"/>
       <c r="C721" s="2"/>
       <c r="D721" s="2"/>
@@ -10237,7 +10248,7 @@
       <c r="J721" s="2"/>
       <c r="K721" s="2"/>
     </row>
-    <row r="722" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="722" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B722" s="2"/>
       <c r="C722" s="2"/>
       <c r="D722" s="2"/>
@@ -10249,7 +10260,7 @@
       <c r="J722" s="2"/>
       <c r="K722" s="2"/>
     </row>
-    <row r="723" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="723" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B723" s="2"/>
       <c r="C723" s="2"/>
       <c r="D723" s="2"/>
@@ -10261,7 +10272,7 @@
       <c r="J723" s="2"/>
       <c r="K723" s="2"/>
     </row>
-    <row r="724" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="724" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B724" s="2"/>
       <c r="C724" s="2"/>
       <c r="D724" s="2"/>
@@ -10273,7 +10284,7 @@
       <c r="J724" s="2"/>
       <c r="K724" s="2"/>
     </row>
-    <row r="725" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="725" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B725" s="2"/>
       <c r="C725" s="2"/>
       <c r="D725" s="2"/>
@@ -10285,7 +10296,7 @@
       <c r="J725" s="2"/>
       <c r="K725" s="2"/>
     </row>
-    <row r="726" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="726" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B726" s="2"/>
       <c r="C726" s="2"/>
       <c r="D726" s="2"/>
@@ -10297,7 +10308,7 @@
       <c r="J726" s="2"/>
       <c r="K726" s="2"/>
     </row>
-    <row r="727" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="727" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B727" s="2"/>
       <c r="C727" s="2"/>
       <c r="D727" s="2"/>
@@ -10309,7 +10320,7 @@
       <c r="J727" s="2"/>
       <c r="K727" s="2"/>
     </row>
-    <row r="728" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="728" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B728" s="2"/>
       <c r="C728" s="2"/>
       <c r="D728" s="2"/>
@@ -10321,7 +10332,7 @@
       <c r="J728" s="2"/>
       <c r="K728" s="2"/>
     </row>
-    <row r="729" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="729" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B729" s="2"/>
       <c r="C729" s="2"/>
       <c r="D729" s="2"/>
@@ -10333,7 +10344,7 @@
       <c r="J729" s="2"/>
       <c r="K729" s="2"/>
     </row>
-    <row r="730" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="730" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B730" s="2"/>
       <c r="C730" s="2"/>
       <c r="D730" s="2"/>
@@ -10345,7 +10356,7 @@
       <c r="J730" s="2"/>
       <c r="K730" s="2"/>
     </row>
-    <row r="731" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="731" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B731" s="2"/>
       <c r="C731" s="2"/>
       <c r="D731" s="2"/>
@@ -10357,7 +10368,7 @@
       <c r="J731" s="2"/>
       <c r="K731" s="2"/>
     </row>
-    <row r="732" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="732" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B732" s="2"/>
       <c r="C732" s="2"/>
       <c r="D732" s="2"/>
@@ -10369,7 +10380,7 @@
       <c r="J732" s="2"/>
       <c r="K732" s="2"/>
     </row>
-    <row r="733" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="733" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B733" s="2"/>
       <c r="C733" s="2"/>
       <c r="D733" s="2"/>
@@ -10381,7 +10392,7 @@
       <c r="J733" s="2"/>
       <c r="K733" s="2"/>
     </row>
-    <row r="734" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="734" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B734" s="2"/>
       <c r="C734" s="2"/>
       <c r="D734" s="2"/>
@@ -10393,7 +10404,7 @@
       <c r="J734" s="2"/>
       <c r="K734" s="2"/>
     </row>
-    <row r="735" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="735" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B735" s="2"/>
       <c r="C735" s="2"/>
       <c r="D735" s="2"/>
@@ -10405,7 +10416,7 @@
       <c r="J735" s="2"/>
       <c r="K735" s="2"/>
     </row>
-    <row r="736" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="736" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B736" s="2"/>
       <c r="C736" s="2"/>
       <c r="D736" s="2"/>
@@ -10417,7 +10428,7 @@
       <c r="J736" s="2"/>
       <c r="K736" s="2"/>
     </row>
-    <row r="737" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="737" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B737" s="2"/>
       <c r="C737" s="2"/>
       <c r="D737" s="2"/>
@@ -10429,7 +10440,7 @@
       <c r="J737" s="2"/>
       <c r="K737" s="2"/>
     </row>
-    <row r="738" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="738" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B738" s="2"/>
       <c r="C738" s="2"/>
       <c r="D738" s="2"/>
@@ -10441,7 +10452,7 @@
       <c r="J738" s="2"/>
       <c r="K738" s="2"/>
     </row>
-    <row r="739" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="739" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B739" s="2"/>
       <c r="C739" s="2"/>
       <c r="D739" s="2"/>
@@ -10453,7 +10464,7 @@
       <c r="J739" s="2"/>
       <c r="K739" s="2"/>
     </row>
-    <row r="740" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="740" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B740" s="2"/>
       <c r="C740" s="2"/>
       <c r="D740" s="2"/>
@@ -10465,7 +10476,7 @@
       <c r="J740" s="2"/>
       <c r="K740" s="2"/>
     </row>
-    <row r="741" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="741" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B741" s="2"/>
       <c r="C741" s="2"/>
       <c r="D741" s="2"/>
@@ -10477,7 +10488,7 @@
       <c r="J741" s="2"/>
       <c r="K741" s="2"/>
     </row>
-    <row r="742" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="742" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B742" s="2"/>
       <c r="C742" s="2"/>
       <c r="D742" s="2"/>
@@ -10489,7 +10500,7 @@
       <c r="J742" s="2"/>
       <c r="K742" s="2"/>
     </row>
-    <row r="743" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="743" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B743" s="2"/>
       <c r="C743" s="2"/>
       <c r="D743" s="2"/>
@@ -10501,7 +10512,7 @@
       <c r="J743" s="2"/>
       <c r="K743" s="2"/>
     </row>
-    <row r="744" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="744" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B744" s="2"/>
       <c r="C744" s="2"/>
       <c r="D744" s="2"/>
@@ -10513,7 +10524,7 @@
       <c r="J744" s="2"/>
       <c r="K744" s="2"/>
     </row>
-    <row r="745" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="745" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B745" s="2"/>
       <c r="C745" s="2"/>
       <c r="D745" s="2"/>
@@ -10525,7 +10536,7 @@
       <c r="J745" s="2"/>
       <c r="K745" s="2"/>
     </row>
-    <row r="746" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="746" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B746" s="2"/>
       <c r="C746" s="2"/>
       <c r="D746" s="2"/>
@@ -10537,7 +10548,7 @@
       <c r="J746" s="2"/>
       <c r="K746" s="2"/>
     </row>
-    <row r="747" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="747" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B747" s="2"/>
       <c r="C747" s="2"/>
       <c r="D747" s="2"/>
@@ -10549,7 +10560,7 @@
       <c r="J747" s="2"/>
       <c r="K747" s="2"/>
     </row>
-    <row r="748" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="748" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B748" s="2"/>
       <c r="C748" s="2"/>
       <c r="D748" s="2"/>
@@ -10561,7 +10572,7 @@
       <c r="J748" s="2"/>
       <c r="K748" s="2"/>
     </row>
-    <row r="749" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="749" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B749" s="2"/>
       <c r="C749" s="2"/>
       <c r="D749" s="2"/>
@@ -10575,28 +10586,13 @@
     </row>
   </sheetData>
   <mergeCells count="45">
-    <mergeCell ref="J19:J21"/>
-    <mergeCell ref="K19:K21"/>
-    <mergeCell ref="I10:I12"/>
-    <mergeCell ref="I13:I15"/>
-    <mergeCell ref="I16:I18"/>
-    <mergeCell ref="J10:J12"/>
-    <mergeCell ref="J13:J15"/>
-    <mergeCell ref="J16:J18"/>
-    <mergeCell ref="K10:K12"/>
-    <mergeCell ref="K13:K15"/>
-    <mergeCell ref="K16:K18"/>
-    <mergeCell ref="I19:I21"/>
-    <mergeCell ref="B19:B21"/>
-    <mergeCell ref="C19:C21"/>
-    <mergeCell ref="D19:D21"/>
-    <mergeCell ref="E19:E21"/>
-    <mergeCell ref="H19:H21"/>
-    <mergeCell ref="H10:H12"/>
-    <mergeCell ref="H16:H18"/>
-    <mergeCell ref="E16:E18"/>
-    <mergeCell ref="D16:D18"/>
-    <mergeCell ref="C16:C18"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="D3:G3"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D4:G4"/>
+    <mergeCell ref="D5:G5"/>
+    <mergeCell ref="D6:G6"/>
+    <mergeCell ref="D7:G7"/>
     <mergeCell ref="B16:B18"/>
     <mergeCell ref="H2:K7"/>
     <mergeCell ref="B10:B12"/>
@@ -10613,19 +10609,35 @@
     <mergeCell ref="B5:C5"/>
     <mergeCell ref="B6:C6"/>
     <mergeCell ref="D2:G2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="D3:G3"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D4:G4"/>
-    <mergeCell ref="D5:G5"/>
-    <mergeCell ref="D6:G6"/>
-    <mergeCell ref="D7:G7"/>
+    <mergeCell ref="H10:H12"/>
+    <mergeCell ref="H16:H18"/>
+    <mergeCell ref="E16:E18"/>
+    <mergeCell ref="D16:D18"/>
+    <mergeCell ref="C16:C18"/>
+    <mergeCell ref="B19:B21"/>
+    <mergeCell ref="C19:C21"/>
+    <mergeCell ref="D19:D21"/>
+    <mergeCell ref="E19:E21"/>
+    <mergeCell ref="H19:H21"/>
+    <mergeCell ref="J19:J21"/>
+    <mergeCell ref="K19:K21"/>
+    <mergeCell ref="I10:I12"/>
+    <mergeCell ref="I13:I15"/>
+    <mergeCell ref="I16:I18"/>
+    <mergeCell ref="J10:J12"/>
+    <mergeCell ref="J13:J15"/>
+    <mergeCell ref="J16:J18"/>
+    <mergeCell ref="K10:K12"/>
+    <mergeCell ref="K13:K15"/>
+    <mergeCell ref="K16:K18"/>
+    <mergeCell ref="I19:I21"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="H2" r:id="rId1"/>
+    <hyperlink ref="H2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="G11" r:id="rId2" xr:uid="{93EC3589-93F4-AC47-8F24-E0EAEEB44B85}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
-  <drawing r:id="rId3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
+  <drawing r:id="rId4"/>
 </worksheet>
 </file>